--- a/SPRINT_MATEMÁTICA/dados_geral.xlsx
+++ b/SPRINT_MATEMÁTICA/dados_geral.xlsx
@@ -477,19 +477,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>21.8</v>
+        <v>29.6</v>
       </c>
       <c r="F2" t="n">
-        <v>3.633333333333333</v>
+        <v>4.933333333333334</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
-        <v>19.5</v>
+        <v>33.4</v>
       </c>
       <c r="F3" t="n">
-        <v>3.25</v>
+        <v>5.566666666666666</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
-        <v>17.7</v>
+        <v>25.3</v>
       </c>
       <c r="F4" t="n">
-        <v>2.95</v>
+        <v>4.216666666666667</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -558,23 +558,23 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
-        <v>17.8</v>
+        <v>30.3</v>
       </c>
       <c r="F5" t="n">
-        <v>2.966666666666667</v>
+        <v>5.05</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -585,19 +585,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>20</v>
+        <v>30.5</v>
       </c>
       <c r="F6" t="n">
-        <v>3.333333333333333</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -612,19 +612,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E7" t="n">
-        <v>21.5</v>
+        <v>29.2</v>
       </c>
       <c r="F7" t="n">
-        <v>3.583333333333333</v>
+        <v>4.866666666666666</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -639,19 +639,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E8" t="n">
-        <v>17.7</v>
+        <v>30.8</v>
       </c>
       <c r="F8" t="n">
-        <v>2.95</v>
+        <v>5.133333333333334</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -666,19 +666,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
-        <v>19.1</v>
+        <v>29.2</v>
       </c>
       <c r="F9" t="n">
-        <v>3.183333333333333</v>
+        <v>4.866666666666666</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -702,10 +702,10 @@
         <v>20</v>
       </c>
       <c r="E10" t="n">
-        <v>16.6</v>
+        <v>26.3</v>
       </c>
       <c r="F10" t="n">
-        <v>2.766666666666667</v>
+        <v>4.383333333333334</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -720,19 +720,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E11" t="n">
-        <v>19.5</v>
+        <v>31.2</v>
       </c>
       <c r="F11" t="n">
-        <v>3.25</v>
+        <v>5.2</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -747,19 +747,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E12" t="n">
-        <v>19.1</v>
+        <v>24.3</v>
       </c>
       <c r="F12" t="n">
-        <v>3.183333333333333</v>
+        <v>4.05</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -774,19 +774,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
-        <v>19.4</v>
+        <v>17.5</v>
       </c>
       <c r="F13" t="n">
-        <v>3.233333333333333</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -801,19 +801,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E14" t="n">
-        <v>18.5</v>
+        <v>20.8</v>
       </c>
       <c r="F14" t="n">
-        <v>3.083333333333333</v>
+        <v>3.466666666666667</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -828,19 +828,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E15" t="n">
-        <v>21.2</v>
+        <v>19.8</v>
       </c>
       <c r="F15" t="n">
-        <v>3.533333333333333</v>
+        <v>3.3</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -855,19 +855,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E16" t="n">
-        <v>19.8</v>
+        <v>19</v>
       </c>
       <c r="F16" t="n">
-        <v>3.3</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -882,19 +882,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E17" t="n">
-        <v>22.2</v>
+        <v>18.2</v>
       </c>
       <c r="F17" t="n">
-        <v>3.7</v>
+        <v>3.033333333333333</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -909,19 +909,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E18" t="n">
-        <v>20.4</v>
+        <v>24.9</v>
       </c>
       <c r="F18" t="n">
-        <v>3.4</v>
+        <v>4.15</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -936,19 +936,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E19" t="n">
-        <v>22</v>
+        <v>19.1</v>
       </c>
       <c r="F19" t="n">
-        <v>3.666666666666667</v>
+        <v>3.183333333333333</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -963,19 +963,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E20" t="n">
-        <v>15.4</v>
+        <v>17.4</v>
       </c>
       <c r="F20" t="n">
-        <v>2.566666666666667</v>
+        <v>2.9</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -990,19 +990,19 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="n">
         <v>6</v>
       </c>
-      <c r="C21" t="n">
-        <v>4</v>
-      </c>
       <c r="D21" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E21" t="n">
-        <v>17.6</v>
+        <v>18.5</v>
       </c>
       <c r="F21" t="n">
-        <v>2.933333333333333</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1017,23 +1017,23 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E22" t="n">
-        <v>20.5</v>
+        <v>15.2</v>
       </c>
       <c r="F22" t="n">
-        <v>3.416666666666667</v>
+        <v>2.533333333333333</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -1044,23 +1044,23 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E23" t="n">
-        <v>19</v>
+        <v>20.3</v>
       </c>
       <c r="F23" t="n">
-        <v>3.166666666666667</v>
+        <v>3.383333333333333</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -1071,23 +1071,23 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E24" t="n">
-        <v>21.8</v>
+        <v>17.5</v>
       </c>
       <c r="F24" t="n">
-        <v>3.633333333333333</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -1098,23 +1098,23 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="E25" t="n">
-        <v>20</v>
+        <v>16.9</v>
       </c>
       <c r="F25" t="n">
-        <v>3.333333333333333</v>
+        <v>2.816666666666667</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -1125,19 +1125,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="E26" t="n">
-        <v>21.9</v>
+        <v>22.6</v>
       </c>
       <c r="F26" t="n">
-        <v>3.65</v>
+        <v>3.766666666666667</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E27" t="n">
-        <v>22</v>
+        <v>21.7</v>
       </c>
       <c r="F27" t="n">
-        <v>3.666666666666667</v>
+        <v>3.616666666666667</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1179,19 +1179,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E28" t="n">
-        <v>16.9</v>
+        <v>21.7</v>
       </c>
       <c r="F28" t="n">
-        <v>2.816666666666667</v>
+        <v>3.616666666666667</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1206,19 +1206,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C29" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E29" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="F29" t="n">
-        <v>3.316666666666667</v>
+        <v>3.35</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1233,19 +1233,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E30" t="n">
-        <v>15.7</v>
+        <v>17.6</v>
       </c>
       <c r="F30" t="n">
-        <v>2.616666666666667</v>
+        <v>2.933333333333333</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1260,19 +1260,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E31" t="n">
-        <v>21.1</v>
+        <v>21.4</v>
       </c>
       <c r="F31" t="n">
-        <v>3.516666666666667</v>
+        <v>3.566666666666667</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1287,23 +1287,23 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E32" t="n">
-        <v>21.9</v>
+        <v>19.5</v>
       </c>
       <c r="F32" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -1314,19 +1314,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C33" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E33" t="n">
-        <v>21.6</v>
+        <v>23.7</v>
       </c>
       <c r="F33" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1341,23 +1341,23 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E34" t="n">
-        <v>18.6</v>
+        <v>19.4</v>
       </c>
       <c r="F34" t="n">
-        <v>3.1</v>
+        <v>3.233333333333333</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -1368,19 +1368,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E35" t="n">
-        <v>18.2</v>
+        <v>20.3</v>
       </c>
       <c r="F35" t="n">
-        <v>3.033333333333333</v>
+        <v>3.383333333333333</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1395,19 +1395,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C36" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E36" t="n">
-        <v>17.5</v>
+        <v>21.3</v>
       </c>
       <c r="F36" t="n">
-        <v>2.916666666666667</v>
+        <v>3.55</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1422,19 +1422,19 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>6</v>
+      </c>
+      <c r="C37" t="n">
         <v>4</v>
       </c>
-      <c r="C37" t="n">
-        <v>6</v>
-      </c>
       <c r="D37" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E37" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>3.25</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1449,23 +1449,23 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E38" t="n">
-        <v>20.9</v>
+        <v>20</v>
       </c>
       <c r="F38" t="n">
-        <v>3.483333333333333</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -1476,19 +1476,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C39" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E39" t="n">
-        <v>17.4</v>
+        <v>20.6</v>
       </c>
       <c r="F39" t="n">
-        <v>2.9</v>
+        <v>3.433333333333333</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1503,23 +1503,23 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C40" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E40" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F40" t="n">
-        <v>3.166666666666667</v>
+        <v>3</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -1530,19 +1530,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C41" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="E41" t="n">
-        <v>19.7</v>
+        <v>22.1</v>
       </c>
       <c r="F41" t="n">
-        <v>3.283333333333333</v>
+        <v>3.683333333333333</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>

--- a/SPRINT_MATEMÁTICA/dados_geral.xlsx
+++ b/SPRINT_MATEMÁTICA/dados_geral.xlsx
@@ -477,19 +477,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E2" t="n">
-        <v>25.9</v>
+        <v>30</v>
       </c>
       <c r="F2" t="n">
-        <v>4.316666666666666</v>
+        <v>5</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>28.9</v>
+        <v>34.4</v>
       </c>
       <c r="F3" t="n">
-        <v>4.816666666666666</v>
+        <v>5.733333333333333</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>33.4</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>5.566666666666666</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -558,19 +558,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
-        <v>31.9</v>
+        <v>32.6</v>
       </c>
       <c r="F5" t="n">
-        <v>5.316666666666666</v>
+        <v>5.433333333333334</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -585,19 +585,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>27.9</v>
+        <v>31.2</v>
       </c>
       <c r="F6" t="n">
-        <v>4.65</v>
+        <v>5.2</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -612,19 +612,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>29.5</v>
+        <v>31.6</v>
       </c>
       <c r="F7" t="n">
-        <v>4.916666666666667</v>
+        <v>5.266666666666667</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -639,19 +639,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E8" t="n">
-        <v>28.1</v>
+        <v>33.4</v>
       </c>
       <c r="F8" t="n">
-        <v>4.683333333333334</v>
+        <v>5.566666666666666</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -666,19 +666,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
-        <v>26.2</v>
+        <v>29.7</v>
       </c>
       <c r="F9" t="n">
-        <v>4.366666666666666</v>
+        <v>4.95</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -693,19 +693,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>28.5</v>
+        <v>32.4</v>
       </c>
       <c r="F10" t="n">
-        <v>4.75</v>
+        <v>5.4</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -720,19 +720,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>29.4</v>
+        <v>32.4</v>
       </c>
       <c r="F11" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -747,19 +747,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E12" t="n">
-        <v>31.2</v>
+        <v>31.9</v>
       </c>
       <c r="F12" t="n">
-        <v>5.2</v>
+        <v>5.316666666666666</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -774,19 +774,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E13" t="n">
-        <v>28.3</v>
+        <v>32.2</v>
       </c>
       <c r="F13" t="n">
-        <v>4.716666666666667</v>
+        <v>5.366666666666666</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E14" t="n">
         <v>29.7</v>
@@ -837,10 +837,10 @@
         <v>50</v>
       </c>
       <c r="E15" t="n">
-        <v>29.7</v>
+        <v>27.4</v>
       </c>
       <c r="F15" t="n">
-        <v>4.95</v>
+        <v>4.566666666666666</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -855,19 +855,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E16" t="n">
-        <v>26</v>
+        <v>29.8</v>
       </c>
       <c r="F16" t="n">
-        <v>4.333333333333333</v>
+        <v>4.966666666666667</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -882,19 +882,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E17" t="n">
-        <v>32.6</v>
+        <v>29.7</v>
       </c>
       <c r="F17" t="n">
-        <v>5.433333333333334</v>
+        <v>4.95</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -909,19 +909,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>31.2</v>
+        <v>31.4</v>
       </c>
       <c r="F18" t="n">
-        <v>5.2</v>
+        <v>5.233333333333333</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -936,19 +936,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D19" t="n">
+        <v>10</v>
+      </c>
+      <c r="E19" t="n">
         <v>30</v>
       </c>
-      <c r="E19" t="n">
-        <v>29.3</v>
-      </c>
       <c r="F19" t="n">
-        <v>4.883333333333334</v>
+        <v>5</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -963,19 +963,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E20" t="n">
-        <v>32.5</v>
+        <v>31.8</v>
       </c>
       <c r="F20" t="n">
-        <v>5.416666666666667</v>
+        <v>5.3</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -999,10 +999,10 @@
         <v>30</v>
       </c>
       <c r="E21" t="n">
-        <v>30</v>
+        <v>28.4</v>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>4.733333333333333</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1017,19 +1017,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E22" t="n">
-        <v>30.5</v>
+        <v>28.8</v>
       </c>
       <c r="F22" t="n">
-        <v>5.083333333333333</v>
+        <v>4.8</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1044,19 +1044,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E23" t="n">
-        <v>33.5</v>
+        <v>32.8</v>
       </c>
       <c r="F23" t="n">
-        <v>5.583333333333333</v>
+        <v>5.466666666666667</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1071,19 +1071,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C24" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E24" t="n">
-        <v>31.4</v>
+        <v>27.4</v>
       </c>
       <c r="F24" t="n">
-        <v>5.233333333333333</v>
+        <v>4.566666666666666</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1098,19 +1098,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C25" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E25" t="n">
-        <v>29.5</v>
+        <v>27.7</v>
       </c>
       <c r="F25" t="n">
-        <v>4.916666666666667</v>
+        <v>4.616666666666666</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1134,10 +1134,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="F26" t="n">
-        <v>4.716666666666667</v>
+        <v>4.766666666666667</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E27" t="n">
-        <v>30.4</v>
+        <v>28.9</v>
       </c>
       <c r="F27" t="n">
-        <v>5.066666666666666</v>
+        <v>4.816666666666666</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1179,19 +1179,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E28" t="n">
-        <v>29</v>
+        <v>28.2</v>
       </c>
       <c r="F28" t="n">
-        <v>4.833333333333333</v>
+        <v>4.7</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1206,19 +1206,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E29" t="n">
-        <v>29</v>
+        <v>28.1</v>
       </c>
       <c r="F29" t="n">
-        <v>4.833333333333333</v>
+        <v>4.683333333333334</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1233,19 +1233,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>31.4</v>
+        <v>31.8</v>
       </c>
       <c r="F30" t="n">
-        <v>5.233333333333333</v>
+        <v>5.3</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1260,19 +1260,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E31" t="n">
-        <v>27.8</v>
+        <v>32.4</v>
       </c>
       <c r="F31" t="n">
-        <v>4.633333333333334</v>
+        <v>5.4</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1287,19 +1287,19 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>4</v>
+      </c>
+      <c r="C32" t="n">
         <v>6</v>
       </c>
-      <c r="C32" t="n">
-        <v>4</v>
-      </c>
       <c r="D32" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E32" t="n">
-        <v>30.4</v>
+        <v>30</v>
       </c>
       <c r="F32" t="n">
-        <v>5.066666666666666</v>
+        <v>5</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1314,19 +1314,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D33" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E33" t="n">
-        <v>32.5</v>
+        <v>30.9</v>
       </c>
       <c r="F33" t="n">
-        <v>5.416666666666667</v>
+        <v>5.15</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1341,19 +1341,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E34" t="n">
-        <v>30.1</v>
+        <v>28.9</v>
       </c>
       <c r="F34" t="n">
-        <v>5.016666666666667</v>
+        <v>4.816666666666666</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1368,19 +1368,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D35" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E35" t="n">
-        <v>30</v>
+        <v>32.5</v>
       </c>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1422,19 +1422,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D37" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E37" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="F37" t="n">
-        <v>4.3</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1449,19 +1449,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D38" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E38" t="n">
-        <v>29.6</v>
+        <v>29.4</v>
       </c>
       <c r="F38" t="n">
-        <v>4.933333333333334</v>
+        <v>4.9</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1476,19 +1476,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D39" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>30.7</v>
+        <v>29.5</v>
       </c>
       <c r="F39" t="n">
-        <v>5.116666666666666</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1503,19 +1503,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C40" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E40" t="n">
-        <v>32.4</v>
+        <v>26.7</v>
       </c>
       <c r="F40" t="n">
-        <v>5.4</v>
+        <v>4.45</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1530,19 +1530,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C41" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E41" t="n">
-        <v>31</v>
+        <v>26.9</v>
       </c>
       <c r="F41" t="n">
-        <v>5.166666666666667</v>
+        <v>4.483333333333333</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1557,19 +1557,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E42" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="F42" t="n">
-        <v>5.266666666666667</v>
+        <v>5.25</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1584,19 +1584,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D43" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="F43" t="n">
-        <v>4.883333333333334</v>
+        <v>4.866666666666666</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1611,19 +1611,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C44" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E44" t="n">
-        <v>31</v>
+        <v>27.7</v>
       </c>
       <c r="F44" t="n">
-        <v>5.166666666666667</v>
+        <v>4.616666666666666</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1638,19 +1638,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D45" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>30.1</v>
+        <v>31.3</v>
       </c>
       <c r="F45" t="n">
-        <v>5.016666666666667</v>
+        <v>5.216666666666667</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1665,19 +1665,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D46" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E46" t="n">
-        <v>29.3</v>
+        <v>29.7</v>
       </c>
       <c r="F46" t="n">
-        <v>4.883333333333334</v>
+        <v>4.95</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1701,10 +1701,10 @@
         <v>30</v>
       </c>
       <c r="E47" t="n">
-        <v>28.9</v>
+        <v>33</v>
       </c>
       <c r="F47" t="n">
-        <v>4.816666666666666</v>
+        <v>5.5</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1719,19 +1719,19 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C48" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D48" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E48" t="n">
-        <v>28.7</v>
+        <v>29.5</v>
       </c>
       <c r="F48" t="n">
-        <v>4.783333333333333</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1746,19 +1746,19 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D49" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E49" t="n">
-        <v>28.3</v>
+        <v>30.6</v>
       </c>
       <c r="F49" t="n">
-        <v>4.716666666666667</v>
+        <v>5.1</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1782,10 +1782,10 @@
         <v>20</v>
       </c>
       <c r="E50" t="n">
-        <v>27.6</v>
+        <v>33.9</v>
       </c>
       <c r="F50" t="n">
-        <v>4.6</v>
+        <v>5.65</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -1800,19 +1800,19 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C51" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D51" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E51" t="n">
-        <v>27.7</v>
+        <v>28.4</v>
       </c>
       <c r="F51" t="n">
-        <v>4.616666666666666</v>
+        <v>4.733333333333333</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -1836,10 +1836,10 @@
         <v>20</v>
       </c>
       <c r="E52" t="n">
-        <v>31.5</v>
+        <v>30</v>
       </c>
       <c r="F52" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -1854,19 +1854,19 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D53" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E53" t="n">
-        <v>30.8</v>
+        <v>27.3</v>
       </c>
       <c r="F53" t="n">
-        <v>5.133333333333334</v>
+        <v>4.55</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -1881,19 +1881,19 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D54" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E54" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="F54" t="n">
-        <v>5.2</v>
+        <v>5.183333333333334</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C55" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E55" t="n">
-        <v>29.3</v>
+        <v>32.6</v>
       </c>
       <c r="F55" t="n">
-        <v>4.883333333333334</v>
+        <v>5.433333333333334</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -1935,19 +1935,19 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E56" t="n">
-        <v>31</v>
+        <v>30.6</v>
       </c>
       <c r="F56" t="n">
-        <v>5.166666666666667</v>
+        <v>5.1</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -1962,19 +1962,19 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C57" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E57" t="n">
-        <v>29.7</v>
+        <v>30.7</v>
       </c>
       <c r="F57" t="n">
-        <v>4.95</v>
+        <v>5.116666666666666</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -1989,19 +1989,19 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C58" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D58" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E58" t="n">
-        <v>31</v>
+        <v>30.7</v>
       </c>
       <c r="F58" t="n">
-        <v>5.166666666666667</v>
+        <v>5.116666666666666</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2016,13 +2016,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C59" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E59" t="n">
         <v>30.1</v>
@@ -2043,19 +2043,19 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C60" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D60" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E60" t="n">
-        <v>29.7</v>
+        <v>32.5</v>
       </c>
       <c r="F60" t="n">
-        <v>4.95</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2097,19 +2097,19 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C62" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D62" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E62" t="n">
-        <v>28.9</v>
+        <v>29.2</v>
       </c>
       <c r="F62" t="n">
-        <v>4.816666666666666</v>
+        <v>4.866666666666666</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2124,19 +2124,19 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C63" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E63" t="n">
-        <v>31.2</v>
+        <v>30.5</v>
       </c>
       <c r="F63" t="n">
-        <v>5.2</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2160,10 +2160,10 @@
         <v>30</v>
       </c>
       <c r="E64" t="n">
-        <v>27.5</v>
+        <v>26.6</v>
       </c>
       <c r="F64" t="n">
-        <v>4.583333333333333</v>
+        <v>4.433333333333334</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2178,19 +2178,19 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C65" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E65" t="n">
-        <v>28.3</v>
+        <v>30.4</v>
       </c>
       <c r="F65" t="n">
-        <v>4.716666666666667</v>
+        <v>5.066666666666666</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2205,19 +2205,19 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C66" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D66" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E66" t="n">
-        <v>30.4</v>
+        <v>28.5</v>
       </c>
       <c r="F66" t="n">
-        <v>5.066666666666666</v>
+        <v>4.75</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2232,19 +2232,19 @@
         </is>
       </c>
       <c r="B67" t="n">
+        <v>7</v>
+      </c>
+      <c r="C67" t="n">
         <v>3</v>
       </c>
-      <c r="C67" t="n">
-        <v>7</v>
-      </c>
       <c r="D67" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E67" t="n">
-        <v>31.4</v>
+        <v>31.8</v>
       </c>
       <c r="F67" t="n">
-        <v>5.233333333333333</v>
+        <v>5.3</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2259,19 +2259,19 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C68" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E68" t="n">
-        <v>29.7</v>
+        <v>31.1</v>
       </c>
       <c r="F68" t="n">
-        <v>4.95</v>
+        <v>5.183333333333334</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2286,19 +2286,19 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C69" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D69" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E69" t="n">
-        <v>28.6</v>
+        <v>30.3</v>
       </c>
       <c r="F69" t="n">
-        <v>4.766666666666667</v>
+        <v>5.05</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2313,19 +2313,19 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C70" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D70" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E70" t="n">
-        <v>30.6</v>
+        <v>28.4</v>
       </c>
       <c r="F70" t="n">
-        <v>5.1</v>
+        <v>4.733333333333333</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2340,19 +2340,19 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>29</v>
+        <v>27.4</v>
       </c>
       <c r="F71" t="n">
-        <v>4.833333333333333</v>
+        <v>4.566666666666666</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2367,19 +2367,19 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D72" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E72" t="n">
-        <v>28.8</v>
+        <v>33.4</v>
       </c>
       <c r="F72" t="n">
-        <v>4.8</v>
+        <v>5.566666666666666</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2403,10 +2403,10 @@
         <v>30</v>
       </c>
       <c r="E73" t="n">
-        <v>32.5</v>
+        <v>34.2</v>
       </c>
       <c r="F73" t="n">
-        <v>5.416666666666667</v>
+        <v>5.7</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2421,19 +2421,19 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C74" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D74" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E74" t="n">
-        <v>25.4</v>
+        <v>32</v>
       </c>
       <c r="F74" t="n">
-        <v>4.233333333333333</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2448,19 +2448,19 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C75" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E75" t="n">
-        <v>31.9</v>
+        <v>30.7</v>
       </c>
       <c r="F75" t="n">
-        <v>5.316666666666666</v>
+        <v>5.116666666666666</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D76" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>29.6</v>
+        <v>33.6</v>
       </c>
       <c r="F76" t="n">
-        <v>4.933333333333334</v>
+        <v>5.6</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2502,19 +2502,19 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D77" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E77" t="n">
-        <v>29.9</v>
+        <v>28.1</v>
       </c>
       <c r="F77" t="n">
-        <v>4.983333333333333</v>
+        <v>4.683333333333334</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2529,19 +2529,19 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C78" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E78" t="n">
-        <v>31.4</v>
+        <v>32.2</v>
       </c>
       <c r="F78" t="n">
-        <v>5.233333333333333</v>
+        <v>5.366666666666666</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2556,19 +2556,19 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C79" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E79" t="n">
-        <v>29.6</v>
+        <v>27.1</v>
       </c>
       <c r="F79" t="n">
-        <v>4.933333333333334</v>
+        <v>4.516666666666667</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2583,19 +2583,19 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C80" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E80" t="n">
-        <v>32.9</v>
+        <v>29.6</v>
       </c>
       <c r="F80" t="n">
-        <v>5.483333333333333</v>
+        <v>4.933333333333334</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2610,19 +2610,19 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D81" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>32.9</v>
+        <v>28.3</v>
       </c>
       <c r="F81" t="n">
-        <v>5.483333333333333</v>
+        <v>4.716666666666667</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -2637,19 +2637,19 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D82" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E82" t="n">
-        <v>29.1</v>
+        <v>30.5</v>
       </c>
       <c r="F82" t="n">
-        <v>4.85</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C83" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D83" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E83" t="n">
-        <v>29.1</v>
+        <v>29.7</v>
       </c>
       <c r="F83" t="n">
-        <v>4.85</v>
+        <v>4.95</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -2691,19 +2691,19 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D84" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E84" t="n">
-        <v>29.2</v>
+        <v>32.4</v>
       </c>
       <c r="F84" t="n">
-        <v>4.866666666666666</v>
+        <v>5.4</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -2718,19 +2718,19 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C85" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E85" t="n">
-        <v>32.3</v>
+        <v>26.8</v>
       </c>
       <c r="F85" t="n">
-        <v>5.383333333333334</v>
+        <v>4.466666666666667</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -2745,19 +2745,19 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C86" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D86" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E86" t="n">
-        <v>31.4</v>
+        <v>28.9</v>
       </c>
       <c r="F86" t="n">
-        <v>5.233333333333333</v>
+        <v>4.816666666666666</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -2772,19 +2772,19 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C87" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E87" t="n">
-        <v>29.9</v>
+        <v>32.9</v>
       </c>
       <c r="F87" t="n">
-        <v>4.983333333333333</v>
+        <v>5.483333333333333</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -2799,19 +2799,19 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C88" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D88" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E88" t="n">
-        <v>34.6</v>
+        <v>29.6</v>
       </c>
       <c r="F88" t="n">
-        <v>5.766666666666667</v>
+        <v>4.933333333333334</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -2826,19 +2826,19 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C89" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D89" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E89" t="n">
-        <v>31.3</v>
+        <v>32.2</v>
       </c>
       <c r="F89" t="n">
-        <v>5.216666666666667</v>
+        <v>5.366666666666666</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -2862,10 +2862,10 @@
         <v>20</v>
       </c>
       <c r="E90" t="n">
-        <v>31.4</v>
+        <v>31.2</v>
       </c>
       <c r="F90" t="n">
-        <v>5.233333333333333</v>
+        <v>5.2</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -2889,10 +2889,10 @@
         <v>30</v>
       </c>
       <c r="E91" t="n">
-        <v>37.1</v>
+        <v>29.6</v>
       </c>
       <c r="F91" t="n">
-        <v>6.183333333333334</v>
+        <v>4.933333333333334</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -2907,19 +2907,19 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C92" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D92" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E92" t="n">
-        <v>24.8</v>
+        <v>33</v>
       </c>
       <c r="F92" t="n">
-        <v>4.133333333333334</v>
+        <v>5.5</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -2934,19 +2934,19 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C93" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D93" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E93" t="n">
-        <v>31.3</v>
+        <v>30.1</v>
       </c>
       <c r="F93" t="n">
-        <v>5.216666666666667</v>
+        <v>5.016666666666667</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -2961,19 +2961,19 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C94" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D94" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E94" t="n">
-        <v>29.6</v>
+        <v>33.1</v>
       </c>
       <c r="F94" t="n">
-        <v>4.933333333333334</v>
+        <v>5.516666666666667</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -2988,19 +2988,19 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C95" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D95" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E95" t="n">
-        <v>31.9</v>
+        <v>30.4</v>
       </c>
       <c r="F95" t="n">
-        <v>5.316666666666666</v>
+        <v>5.066666666666666</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3015,19 +3015,19 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C96" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D96" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E96" t="n">
-        <v>30.3</v>
+        <v>30.6</v>
       </c>
       <c r="F96" t="n">
-        <v>5.05</v>
+        <v>5.1</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -3051,10 +3051,10 @@
         <v>20</v>
       </c>
       <c r="E97" t="n">
-        <v>30.1</v>
+        <v>28.6</v>
       </c>
       <c r="F97" t="n">
-        <v>5.016666666666667</v>
+        <v>4.766666666666667</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3069,19 +3069,19 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C98" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D98" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E98" t="n">
-        <v>33.6</v>
+        <v>30.5</v>
       </c>
       <c r="F98" t="n">
-        <v>5.6</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3096,19 +3096,19 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D99" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E99" t="n">
-        <v>32.9</v>
+        <v>30.6</v>
       </c>
       <c r="F99" t="n">
-        <v>5.483333333333333</v>
+        <v>5.1</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -3123,19 +3123,19 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C100" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D100" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E100" t="n">
-        <v>27.4</v>
+        <v>31.2</v>
       </c>
       <c r="F100" t="n">
-        <v>4.566666666666666</v>
+        <v>5.2</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -3150,19 +3150,19 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C101" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D101" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E101" t="n">
-        <v>29.6</v>
+        <v>31.1</v>
       </c>
       <c r="F101" t="n">
-        <v>4.933333333333334</v>
+        <v>5.183333333333334</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -3177,19 +3177,19 @@
         </is>
       </c>
       <c r="B102" t="n">
+        <v>6</v>
+      </c>
+      <c r="C102" t="n">
         <v>4</v>
       </c>
-      <c r="C102" t="n">
-        <v>6</v>
-      </c>
       <c r="D102" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E102" t="n">
-        <v>22.3</v>
+        <v>18.3</v>
       </c>
       <c r="F102" t="n">
-        <v>3.716666666666667</v>
+        <v>3.05</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -3204,19 +3204,19 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C103" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E103" t="n">
-        <v>20.7</v>
+        <v>17.7</v>
       </c>
       <c r="F103" t="n">
-        <v>3.45</v>
+        <v>2.95</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -3231,19 +3231,19 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C104" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D104" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E104" t="n">
-        <v>21.4</v>
+        <v>23.7</v>
       </c>
       <c r="F104" t="n">
-        <v>3.566666666666667</v>
+        <v>3.95</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -3267,10 +3267,10 @@
         <v>40</v>
       </c>
       <c r="E105" t="n">
-        <v>19.1</v>
+        <v>20.8</v>
       </c>
       <c r="F105" t="n">
-        <v>3.183333333333333</v>
+        <v>3.466666666666667</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -3285,19 +3285,19 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C106" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E106" t="n">
-        <v>22.6</v>
+        <v>17.5</v>
       </c>
       <c r="F106" t="n">
-        <v>3.766666666666667</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -3312,19 +3312,19 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C107" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D107" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E107" t="n">
-        <v>20.1</v>
+        <v>21.4</v>
       </c>
       <c r="F107" t="n">
-        <v>3.35</v>
+        <v>3.566666666666667</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -3339,19 +3339,19 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C108" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E108" t="n">
-        <v>20.8</v>
+        <v>23.7</v>
       </c>
       <c r="F108" t="n">
-        <v>3.466666666666667</v>
+        <v>3.95</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -3366,19 +3366,19 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C109" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E109" t="n">
-        <v>19</v>
+        <v>18.6</v>
       </c>
       <c r="F109" t="n">
-        <v>3.166666666666667</v>
+        <v>3.1</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -3393,19 +3393,19 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C110" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D110" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E110" t="n">
-        <v>23.2</v>
+        <v>22.4</v>
       </c>
       <c r="F110" t="n">
-        <v>3.866666666666667</v>
+        <v>3.733333333333333</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -3420,23 +3420,23 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C111" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D111" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E111" t="n">
-        <v>20.4</v>
+        <v>19.8</v>
       </c>
       <c r="F111" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -3447,19 +3447,19 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C112" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D112" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E112" t="n">
-        <v>18.8</v>
+        <v>22.5</v>
       </c>
       <c r="F112" t="n">
-        <v>3.133333333333333</v>
+        <v>3.75</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -3474,19 +3474,19 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C113" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D113" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E113" t="n">
-        <v>20.2</v>
+        <v>17.9</v>
       </c>
       <c r="F113" t="n">
-        <v>3.366666666666667</v>
+        <v>2.983333333333333</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -3501,19 +3501,19 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C114" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D114" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E114" t="n">
-        <v>19.8</v>
+        <v>21.5</v>
       </c>
       <c r="F114" t="n">
-        <v>3.3</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -3528,19 +3528,19 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C115" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D115" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E115" t="n">
-        <v>21.1</v>
+        <v>19.4</v>
       </c>
       <c r="F115" t="n">
-        <v>3.516666666666667</v>
+        <v>3.233333333333333</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -3555,23 +3555,23 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C116" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D116" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E116" t="n">
-        <v>19.6</v>
+        <v>19</v>
       </c>
       <c r="F116" t="n">
-        <v>3.266666666666667</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -3582,19 +3582,19 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C117" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D117" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E117" t="n">
-        <v>20.8</v>
+        <v>19.5</v>
       </c>
       <c r="F117" t="n">
-        <v>3.466666666666667</v>
+        <v>3.25</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -3618,10 +3618,10 @@
         <v>50</v>
       </c>
       <c r="E118" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="F118" t="n">
-        <v>3.266666666666667</v>
+        <v>3.233333333333333</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -3636,23 +3636,23 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C119" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D119" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E119" t="n">
-        <v>19.9</v>
+        <v>16.9</v>
       </c>
       <c r="F119" t="n">
-        <v>3.316666666666667</v>
+        <v>2.816666666666667</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -3663,19 +3663,19 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C120" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D120" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E120" t="n">
-        <v>17.1</v>
+        <v>20.2</v>
       </c>
       <c r="F120" t="n">
-        <v>2.85</v>
+        <v>3.366666666666667</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -3690,19 +3690,19 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C121" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D121" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E121" t="n">
-        <v>21.6</v>
+        <v>21.3</v>
       </c>
       <c r="F121" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -3717,19 +3717,19 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C122" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E122" t="n">
-        <v>19.8</v>
+        <v>20.4</v>
       </c>
       <c r="F122" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -3744,19 +3744,19 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C123" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D123" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E123" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="F123" t="n">
-        <v>3.45</v>
+        <v>3.433333333333333</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -3771,19 +3771,19 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C124" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D124" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E124" t="n">
-        <v>19.4</v>
+        <v>18.3</v>
       </c>
       <c r="F124" t="n">
-        <v>3.233333333333333</v>
+        <v>3.05</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -3798,19 +3798,19 @@
         </is>
       </c>
       <c r="B125" t="n">
+        <v>4</v>
+      </c>
+      <c r="C125" t="n">
         <v>6</v>
       </c>
-      <c r="C125" t="n">
-        <v>4</v>
-      </c>
       <c r="D125" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E125" t="n">
-        <v>22.8</v>
+        <v>15.8</v>
       </c>
       <c r="F125" t="n">
-        <v>3.8</v>
+        <v>2.633333333333333</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -3825,19 +3825,19 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C126" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E126" t="n">
-        <v>16.8</v>
+        <v>19.4</v>
       </c>
       <c r="F126" t="n">
-        <v>2.8</v>
+        <v>3.233333333333333</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -3861,10 +3861,10 @@
         <v>50</v>
       </c>
       <c r="E127" t="n">
-        <v>21.7</v>
+        <v>18.7</v>
       </c>
       <c r="F127" t="n">
-        <v>3.616666666666667</v>
+        <v>3.116666666666667</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -3879,19 +3879,19 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C128" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D128" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E128" t="n">
-        <v>16.7</v>
+        <v>22.1</v>
       </c>
       <c r="F128" t="n">
-        <v>2.783333333333333</v>
+        <v>3.683333333333333</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -3906,19 +3906,19 @@
         </is>
       </c>
       <c r="B129" t="n">
+        <v>4</v>
+      </c>
+      <c r="C129" t="n">
         <v>6</v>
       </c>
-      <c r="C129" t="n">
-        <v>4</v>
-      </c>
       <c r="D129" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E129" t="n">
-        <v>19.3</v>
+        <v>18.2</v>
       </c>
       <c r="F129" t="n">
-        <v>3.216666666666667</v>
+        <v>3.033333333333333</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -3933,23 +3933,23 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C130" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D130" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E130" t="n">
-        <v>19</v>
+        <v>17.9</v>
       </c>
       <c r="F130" t="n">
-        <v>3.166666666666667</v>
+        <v>2.983333333333333</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -3960,19 +3960,19 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D131" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E131" t="n">
-        <v>21.3</v>
+        <v>20.1</v>
       </c>
       <c r="F131" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -3987,19 +3987,19 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C132" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D132" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E132" t="n">
-        <v>18.5</v>
+        <v>20.7</v>
       </c>
       <c r="F132" t="n">
-        <v>3.083333333333333</v>
+        <v>3.45</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -4014,19 +4014,19 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C133" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D133" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E133" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="F133" t="n">
-        <v>3.333333333333333</v>
+        <v>3.35</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -4041,19 +4041,19 @@
         </is>
       </c>
       <c r="B134" t="n">
+        <v>4</v>
+      </c>
+      <c r="C134" t="n">
         <v>6</v>
       </c>
-      <c r="C134" t="n">
-        <v>4</v>
-      </c>
       <c r="D134" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E134" t="n">
-        <v>25.2</v>
+        <v>21.6</v>
       </c>
       <c r="F134" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -4068,19 +4068,19 @@
         </is>
       </c>
       <c r="B135" t="n">
+        <v>3</v>
+      </c>
+      <c r="C135" t="n">
         <v>7</v>
       </c>
-      <c r="C135" t="n">
-        <v>3</v>
-      </c>
       <c r="D135" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E135" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F135" t="n">
-        <v>3.5</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -4095,19 +4095,19 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C136" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D136" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E136" t="n">
-        <v>21.5</v>
+        <v>19.6</v>
       </c>
       <c r="F136" t="n">
-        <v>3.583333333333333</v>
+        <v>3.266666666666667</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -4122,19 +4122,19 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C137" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D137" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E137" t="n">
-        <v>21</v>
+        <v>22.1</v>
       </c>
       <c r="F137" t="n">
-        <v>3.5</v>
+        <v>3.683333333333333</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -4149,19 +4149,19 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C138" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D138" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E138" t="n">
-        <v>22.2</v>
+        <v>21.2</v>
       </c>
       <c r="F138" t="n">
-        <v>3.7</v>
+        <v>3.533333333333333</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -4185,10 +4185,10 @@
         <v>50</v>
       </c>
       <c r="E139" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="F139" t="n">
-        <v>3.483333333333333</v>
+        <v>3.5</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -4203,23 +4203,23 @@
         </is>
       </c>
       <c r="B140" t="n">
+        <v>7</v>
+      </c>
+      <c r="C140" t="n">
         <v>3</v>
       </c>
-      <c r="C140" t="n">
-        <v>7</v>
-      </c>
       <c r="D140" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E140" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="F140" t="n">
-        <v>3.283333333333333</v>
+        <v>3.316666666666667</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -4230,19 +4230,19 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C141" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D141" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E141" t="n">
-        <v>19</v>
+        <v>21.8</v>
       </c>
       <c r="F141" t="n">
-        <v>3.166666666666667</v>
+        <v>3.633333333333333</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -4257,19 +4257,19 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C142" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D142" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E142" t="n">
-        <v>21.3</v>
+        <v>18.6</v>
       </c>
       <c r="F142" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -4284,19 +4284,19 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C143" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D143" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E143" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="F143" t="n">
-        <v>3.616666666666667</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -4311,23 +4311,23 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D144" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="E144" t="n">
-        <v>17.4</v>
+        <v>18.1</v>
       </c>
       <c r="F144" t="n">
-        <v>2.9</v>
+        <v>3.016666666666667</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -4338,23 +4338,23 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C145" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D145" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E145" t="n">
-        <v>19.9</v>
+        <v>16</v>
       </c>
       <c r="F145" t="n">
-        <v>3.316666666666667</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -4365,19 +4365,19 @@
         </is>
       </c>
       <c r="B146" t="n">
+        <v>4</v>
+      </c>
+      <c r="C146" t="n">
         <v>6</v>
       </c>
-      <c r="C146" t="n">
-        <v>4</v>
-      </c>
       <c r="D146" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E146" t="n">
-        <v>19.3</v>
+        <v>16.3</v>
       </c>
       <c r="F146" t="n">
-        <v>3.216666666666667</v>
+        <v>2.716666666666667</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -4392,19 +4392,19 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C147" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D147" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E147" t="n">
-        <v>15.5</v>
+        <v>21.5</v>
       </c>
       <c r="F147" t="n">
-        <v>2.583333333333333</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -4428,14 +4428,14 @@
         <v>70</v>
       </c>
       <c r="E148" t="n">
-        <v>22.1</v>
+        <v>19.5</v>
       </c>
       <c r="F148" t="n">
-        <v>3.683333333333333</v>
+        <v>3.25</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -4446,19 +4446,19 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C149" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D149" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E149" t="n">
-        <v>21.9</v>
+        <v>21.5</v>
       </c>
       <c r="F149" t="n">
-        <v>3.65</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -4482,10 +4482,10 @@
         <v>40</v>
       </c>
       <c r="E150" t="n">
-        <v>21.7</v>
+        <v>24.2</v>
       </c>
       <c r="F150" t="n">
-        <v>3.616666666666667</v>
+        <v>4.033333333333333</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -4509,10 +4509,10 @@
         <v>40</v>
       </c>
       <c r="E151" t="n">
-        <v>23</v>
+        <v>20.1</v>
       </c>
       <c r="F151" t="n">
-        <v>3.833333333333333</v>
+        <v>3.35</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -4527,19 +4527,19 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C152" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E152" t="n">
-        <v>21.9</v>
+        <v>17.1</v>
       </c>
       <c r="F152" t="n">
-        <v>3.65</v>
+        <v>2.85</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -4563,10 +4563,10 @@
         <v>60</v>
       </c>
       <c r="E153" t="n">
-        <v>20</v>
+        <v>22.3</v>
       </c>
       <c r="F153" t="n">
-        <v>3.333333333333333</v>
+        <v>3.716666666666667</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -4590,10 +4590,10 @@
         <v>60</v>
       </c>
       <c r="E154" t="n">
-        <v>20.4</v>
+        <v>18.2</v>
       </c>
       <c r="F154" t="n">
-        <v>3.4</v>
+        <v>3.033333333333333</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -4608,19 +4608,19 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C155" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D155" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E155" t="n">
-        <v>19.8</v>
+        <v>18.5</v>
       </c>
       <c r="F155" t="n">
-        <v>3.3</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -4635,23 +4635,23 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D156" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E156" t="n">
-        <v>24.6</v>
+        <v>17.7</v>
       </c>
       <c r="F156" t="n">
-        <v>4.1</v>
+        <v>2.95</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -4662,19 +4662,19 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C157" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E157" t="n">
-        <v>20.8</v>
+        <v>18.8</v>
       </c>
       <c r="F157" t="n">
-        <v>3.466666666666667</v>
+        <v>3.133333333333333</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -4689,19 +4689,19 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C158" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D158" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E158" t="n">
-        <v>20.2</v>
+        <v>18.7</v>
       </c>
       <c r="F158" t="n">
-        <v>3.366666666666667</v>
+        <v>3.116666666666667</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -4716,19 +4716,19 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C159" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D159" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E159" t="n">
-        <v>19.3</v>
+        <v>21.6</v>
       </c>
       <c r="F159" t="n">
-        <v>3.216666666666667</v>
+        <v>3.6</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -4743,19 +4743,19 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C160" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D160" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E160" t="n">
-        <v>18</v>
+        <v>19.7</v>
       </c>
       <c r="F160" t="n">
-        <v>3</v>
+        <v>3.283333333333333</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -4770,19 +4770,19 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C161" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E161" t="n">
-        <v>20.9</v>
+        <v>19.3</v>
       </c>
       <c r="F161" t="n">
-        <v>3.483333333333333</v>
+        <v>3.216666666666667</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -4806,10 +4806,10 @@
         <v>50</v>
       </c>
       <c r="E162" t="n">
-        <v>18.5</v>
+        <v>19.3</v>
       </c>
       <c r="F162" t="n">
-        <v>3.083333333333333</v>
+        <v>3.216666666666667</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -4824,19 +4824,19 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C163" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D163" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E163" t="n">
-        <v>18.3</v>
+        <v>19.4</v>
       </c>
       <c r="F163" t="n">
-        <v>3.05</v>
+        <v>3.233333333333333</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -4851,19 +4851,19 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C164" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D164" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E164" t="n">
-        <v>21.8</v>
+        <v>20.5</v>
       </c>
       <c r="F164" t="n">
-        <v>3.633333333333333</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -4887,10 +4887,10 @@
         <v>60</v>
       </c>
       <c r="E165" t="n">
-        <v>16.3</v>
+        <v>17.6</v>
       </c>
       <c r="F165" t="n">
-        <v>2.716666666666667</v>
+        <v>2.933333333333333</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -4905,19 +4905,19 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C166" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D166" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E166" t="n">
-        <v>21.1</v>
+        <v>20</v>
       </c>
       <c r="F166" t="n">
-        <v>3.516666666666667</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -4932,19 +4932,19 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C167" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D167" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E167" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="F167" t="n">
-        <v>3.433333333333333</v>
+        <v>3.466666666666667</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -4959,19 +4959,19 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C168" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D168" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E168" t="n">
-        <v>20.4</v>
+        <v>20</v>
       </c>
       <c r="F168" t="n">
-        <v>3.4</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -4986,19 +4986,19 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C169" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D169" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E169" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="F169" t="n">
-        <v>3.5</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -5022,10 +5022,10 @@
         <v>50</v>
       </c>
       <c r="E170" t="n">
-        <v>20.8</v>
+        <v>22.4</v>
       </c>
       <c r="F170" t="n">
-        <v>3.466666666666667</v>
+        <v>3.733333333333333</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -5040,19 +5040,19 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C171" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D171" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E171" t="n">
-        <v>18.7</v>
+        <v>17.7</v>
       </c>
       <c r="F171" t="n">
-        <v>3.116666666666667</v>
+        <v>2.95</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -5067,23 +5067,23 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C172" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D172" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E172" t="n">
-        <v>19.1</v>
+        <v>19.8</v>
       </c>
       <c r="F172" t="n">
-        <v>3.183333333333333</v>
+        <v>3.3</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -5103,10 +5103,10 @@
         <v>40</v>
       </c>
       <c r="E173" t="n">
-        <v>19.9</v>
+        <v>23.8</v>
       </c>
       <c r="F173" t="n">
-        <v>3.316666666666667</v>
+        <v>3.966666666666667</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -5121,23 +5121,23 @@
         </is>
       </c>
       <c r="B174" t="n">
+        <v>3</v>
+      </c>
+      <c r="C174" t="n">
         <v>7</v>
       </c>
-      <c r="C174" t="n">
-        <v>3</v>
-      </c>
       <c r="D174" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E174" t="n">
-        <v>19.7</v>
+        <v>17.3</v>
       </c>
       <c r="F174" t="n">
-        <v>3.283333333333333</v>
+        <v>2.883333333333333</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -5148,19 +5148,19 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C175" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D175" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E175" t="n">
-        <v>21.2</v>
+        <v>19.1</v>
       </c>
       <c r="F175" t="n">
-        <v>3.533333333333333</v>
+        <v>3.183333333333333</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C176" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D176" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E176" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="F176" t="n">
-        <v>3.4</v>
+        <v>3.383333333333333</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -5229,19 +5229,19 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C178" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D178" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E178" t="n">
-        <v>19.9</v>
+        <v>20.5</v>
       </c>
       <c r="F178" t="n">
-        <v>3.316666666666667</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -5256,19 +5256,19 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C179" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D179" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E179" t="n">
-        <v>23.1</v>
+        <v>20.3</v>
       </c>
       <c r="F179" t="n">
-        <v>3.85</v>
+        <v>3.383333333333333</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -5283,19 +5283,19 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C180" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D180" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E180" t="n">
-        <v>19.2</v>
+        <v>23.5</v>
       </c>
       <c r="F180" t="n">
-        <v>3.2</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -5310,19 +5310,19 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C181" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D181" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E181" t="n">
-        <v>20.4</v>
+        <v>23.5</v>
       </c>
       <c r="F181" t="n">
-        <v>3.4</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -5337,19 +5337,19 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C182" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D182" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E182" t="n">
-        <v>21.1</v>
+        <v>19.9</v>
       </c>
       <c r="F182" t="n">
-        <v>3.516666666666667</v>
+        <v>3.316666666666667</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -5364,19 +5364,19 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C183" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D183" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E183" t="n">
-        <v>18.3</v>
+        <v>20.2</v>
       </c>
       <c r="F183" t="n">
-        <v>3.05</v>
+        <v>3.366666666666667</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -5391,19 +5391,19 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C184" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D184" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E184" t="n">
-        <v>19.4</v>
+        <v>21.1</v>
       </c>
       <c r="F184" t="n">
-        <v>3.233333333333333</v>
+        <v>3.516666666666667</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -5418,19 +5418,19 @@
         </is>
       </c>
       <c r="B185" t="n">
+        <v>6</v>
+      </c>
+      <c r="C185" t="n">
         <v>4</v>
       </c>
-      <c r="C185" t="n">
-        <v>6</v>
-      </c>
       <c r="D185" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E185" t="n">
-        <v>16.1</v>
+        <v>20.9</v>
       </c>
       <c r="F185" t="n">
-        <v>2.683333333333333</v>
+        <v>3.483333333333333</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -5445,19 +5445,19 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C186" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D186" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E186" t="n">
-        <v>19.3</v>
+        <v>17.9</v>
       </c>
       <c r="F186" t="n">
-        <v>3.216666666666667</v>
+        <v>2.983333333333333</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -5472,19 +5472,19 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C187" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D187" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E187" t="n">
-        <v>21.2</v>
+        <v>18.9</v>
       </c>
       <c r="F187" t="n">
-        <v>3.533333333333333</v>
+        <v>3.15</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -5499,19 +5499,19 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C188" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D188" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E188" t="n">
-        <v>17</v>
+        <v>17.4</v>
       </c>
       <c r="F188" t="n">
-        <v>2.833333333333333</v>
+        <v>2.9</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -5526,19 +5526,19 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C189" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D189" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E189" t="n">
-        <v>19.8</v>
+        <v>17.6</v>
       </c>
       <c r="F189" t="n">
-        <v>3.3</v>
+        <v>2.933333333333333</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -5553,19 +5553,19 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C190" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D190" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E190" t="n">
-        <v>17</v>
+        <v>18.6</v>
       </c>
       <c r="F190" t="n">
-        <v>2.833333333333333</v>
+        <v>3.1</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -5580,23 +5580,23 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C191" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D191" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E191" t="n">
-        <v>19.6</v>
+        <v>19.2</v>
       </c>
       <c r="F191" t="n">
-        <v>3.266666666666667</v>
+        <v>3.2</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -5616,10 +5616,10 @@
         <v>50</v>
       </c>
       <c r="E192" t="n">
-        <v>22.1</v>
+        <v>20.4</v>
       </c>
       <c r="F192" t="n">
-        <v>3.683333333333333</v>
+        <v>3.4</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -5634,23 +5634,23 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C193" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D193" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E193" t="n">
-        <v>20.7</v>
+        <v>19.6</v>
       </c>
       <c r="F193" t="n">
-        <v>3.45</v>
+        <v>3.266666666666667</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -5661,19 +5661,19 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C194" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D194" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E194" t="n">
-        <v>23.6</v>
+        <v>19.6</v>
       </c>
       <c r="F194" t="n">
-        <v>3.933333333333333</v>
+        <v>3.266666666666667</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -5688,19 +5688,19 @@
         </is>
       </c>
       <c r="B195" t="n">
+        <v>4</v>
+      </c>
+      <c r="C195" t="n">
         <v>6</v>
       </c>
-      <c r="C195" t="n">
-        <v>4</v>
-      </c>
       <c r="D195" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E195" t="n">
-        <v>20.4</v>
+        <v>19.8</v>
       </c>
       <c r="F195" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -5715,19 +5715,19 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C196" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D196" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E196" t="n">
-        <v>17.4</v>
+        <v>20.2</v>
       </c>
       <c r="F196" t="n">
-        <v>2.9</v>
+        <v>3.366666666666667</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -5742,23 +5742,23 @@
         </is>
       </c>
       <c r="B197" t="n">
+        <v>7</v>
+      </c>
+      <c r="C197" t="n">
         <v>3</v>
       </c>
-      <c r="C197" t="n">
-        <v>7</v>
-      </c>
       <c r="D197" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E197" t="n">
-        <v>21.1</v>
+        <v>19.7</v>
       </c>
       <c r="F197" t="n">
-        <v>3.516666666666667</v>
+        <v>3.283333333333333</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -5769,19 +5769,19 @@
         </is>
       </c>
       <c r="B198" t="n">
+        <v>6</v>
+      </c>
+      <c r="C198" t="n">
         <v>4</v>
       </c>
-      <c r="C198" t="n">
-        <v>6</v>
-      </c>
       <c r="D198" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E198" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="F198" t="n">
-        <v>3.333333333333333</v>
+        <v>3.316666666666667</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -5796,23 +5796,23 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C199" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D199" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E199" t="n">
-        <v>21.1</v>
+        <v>17.7</v>
       </c>
       <c r="F199" t="n">
-        <v>3.516666666666667</v>
+        <v>2.95</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -5832,10 +5832,10 @@
         <v>60</v>
       </c>
       <c r="E200" t="n">
-        <v>20.4</v>
+        <v>23.3</v>
       </c>
       <c r="F200" t="n">
-        <v>3.4</v>
+        <v>3.883333333333333</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -5850,19 +5850,19 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C201" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D201" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E201" t="n">
-        <v>18.4</v>
+        <v>17.7</v>
       </c>
       <c r="F201" t="n">
-        <v>3.066666666666667</v>
+        <v>2.95</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -5877,19 +5877,19 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D202" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E202" t="n">
-        <v>20.6</v>
+        <v>22.4</v>
       </c>
       <c r="F202" t="n">
-        <v>3.433333333333333</v>
+        <v>3.733333333333333</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -5904,23 +5904,23 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D203" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E203" t="n">
-        <v>19.2</v>
+        <v>20.8</v>
       </c>
       <c r="F203" t="n">
-        <v>3.2</v>
+        <v>3.466666666666667</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -5931,19 +5931,19 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C204" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D204" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E204" t="n">
-        <v>16.5</v>
+        <v>20.9</v>
       </c>
       <c r="F204" t="n">
-        <v>2.75</v>
+        <v>3.483333333333333</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -5967,10 +5967,10 @@
         <v>70</v>
       </c>
       <c r="E205" t="n">
-        <v>20.1</v>
+        <v>22.1</v>
       </c>
       <c r="F205" t="n">
-        <v>3.35</v>
+        <v>3.683333333333333</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -5985,23 +5985,23 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D206" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E206" t="n">
-        <v>20.5</v>
+        <v>19</v>
       </c>
       <c r="F206" t="n">
-        <v>3.416666666666667</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -6012,23 +6012,23 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C207" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D207" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E207" t="n">
-        <v>19.9</v>
+        <v>19.5</v>
       </c>
       <c r="F207" t="n">
-        <v>3.316666666666667</v>
+        <v>3.25</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -6039,23 +6039,23 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D208" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E208" t="n">
-        <v>20.4</v>
+        <v>16.6</v>
       </c>
       <c r="F208" t="n">
-        <v>3.4</v>
+        <v>2.766666666666667</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -6066,23 +6066,23 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D209" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E209" t="n">
-        <v>22.2</v>
+        <v>19.1</v>
       </c>
       <c r="F209" t="n">
-        <v>3.7</v>
+        <v>3.183333333333333</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -6093,19 +6093,19 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D210" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E210" t="n">
-        <v>21.7</v>
+        <v>22.3</v>
       </c>
       <c r="F210" t="n">
-        <v>3.616666666666667</v>
+        <v>3.716666666666667</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -6120,19 +6120,19 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D211" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E211" t="n">
-        <v>18.3</v>
+        <v>17.2</v>
       </c>
       <c r="F211" t="n">
-        <v>3.05</v>
+        <v>2.866666666666667</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -6147,19 +6147,19 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C212" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D212" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E212" t="n">
-        <v>18.6</v>
+        <v>17.4</v>
       </c>
       <c r="F212" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -6174,19 +6174,19 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C213" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D213" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E213" t="n">
-        <v>18.9</v>
+        <v>23.2</v>
       </c>
       <c r="F213" t="n">
-        <v>3.15</v>
+        <v>3.866666666666667</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -6201,19 +6201,19 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D214" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E214" t="n">
-        <v>22.4</v>
+        <v>21.3</v>
       </c>
       <c r="F214" t="n">
-        <v>3.733333333333333</v>
+        <v>3.55</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -6228,23 +6228,23 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C215" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D215" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E215" t="n">
-        <v>23.9</v>
+        <v>19.6</v>
       </c>
       <c r="F215" t="n">
-        <v>3.983333333333333</v>
+        <v>3.266666666666667</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -6264,10 +6264,10 @@
         <v>90</v>
       </c>
       <c r="E216" t="n">
-        <v>17.6</v>
+        <v>19.2</v>
       </c>
       <c r="F216" t="n">
-        <v>2.933333333333333</v>
+        <v>3.2</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -6291,14 +6291,14 @@
         <v>90</v>
       </c>
       <c r="E217" t="n">
-        <v>21.6</v>
+        <v>18.3</v>
       </c>
       <c r="F217" t="n">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -6309,23 +6309,23 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C218" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D218" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="E218" t="n">
-        <v>23.8</v>
+        <v>17.1</v>
       </c>
       <c r="F218" t="n">
-        <v>3.966666666666667</v>
+        <v>2.85</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -6336,19 +6336,19 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C219" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D219" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E219" t="n">
-        <v>19</v>
+        <v>22.1</v>
       </c>
       <c r="F219" t="n">
-        <v>3.166666666666667</v>
+        <v>3.683333333333333</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -6372,14 +6372,14 @@
         <v>90</v>
       </c>
       <c r="E220" t="n">
-        <v>20.3</v>
+        <v>18</v>
       </c>
       <c r="F220" t="n">
-        <v>3.383333333333333</v>
+        <v>3</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -6390,19 +6390,19 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D221" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E221" t="n">
-        <v>19.8</v>
+        <v>17.5</v>
       </c>
       <c r="F221" t="n">
-        <v>3.3</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -6417,19 +6417,19 @@
         </is>
       </c>
       <c r="B222" t="n">
+        <v>6</v>
+      </c>
+      <c r="C222" t="n">
         <v>4</v>
       </c>
-      <c r="C222" t="n">
-        <v>6</v>
-      </c>
       <c r="D222" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E222" t="n">
-        <v>20.2</v>
+        <v>19.8</v>
       </c>
       <c r="F222" t="n">
-        <v>3.366666666666667</v>
+        <v>3.3</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -6453,10 +6453,10 @@
         <v>90</v>
       </c>
       <c r="E223" t="n">
-        <v>20.1</v>
+        <v>21.6</v>
       </c>
       <c r="F223" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -6471,19 +6471,19 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C224" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D224" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E224" t="n">
-        <v>23.2</v>
+        <v>20.4</v>
       </c>
       <c r="F224" t="n">
-        <v>3.866666666666667</v>
+        <v>3.4</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -6498,19 +6498,19 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D225" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E225" t="n">
-        <v>19.4</v>
+        <v>19.9</v>
       </c>
       <c r="F225" t="n">
-        <v>3.233333333333333</v>
+        <v>3.316666666666667</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -6525,23 +6525,23 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C226" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D226" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E226" t="n">
-        <v>18.6</v>
+        <v>19.5</v>
       </c>
       <c r="F226" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -6552,19 +6552,19 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D227" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E227" t="n">
-        <v>16.2</v>
+        <v>19.9</v>
       </c>
       <c r="F227" t="n">
-        <v>2.7</v>
+        <v>3.316666666666667</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -6579,19 +6579,19 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C228" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D228" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E228" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F228" t="n">
-        <v>3.333333333333333</v>
+        <v>3</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -6606,19 +6606,19 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C229" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D229" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E229" t="n">
-        <v>19.8</v>
+        <v>22.1</v>
       </c>
       <c r="F229" t="n">
-        <v>3.3</v>
+        <v>3.683333333333333</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -6633,23 +6633,23 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D230" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E230" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F230" t="n">
-        <v>3.333333333333333</v>
+        <v>3.5</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -6660,23 +6660,23 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D231" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E231" t="n">
-        <v>22.8</v>
+        <v>16.4</v>
       </c>
       <c r="F231" t="n">
-        <v>3.8</v>
+        <v>2.733333333333333</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -6687,19 +6687,19 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C232" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D232" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E232" t="n">
-        <v>21.1</v>
+        <v>16.9</v>
       </c>
       <c r="F232" t="n">
-        <v>3.516666666666667</v>
+        <v>2.816666666666667</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -6714,23 +6714,23 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D233" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E233" t="n">
-        <v>22.7</v>
+        <v>16.7</v>
       </c>
       <c r="F233" t="n">
-        <v>3.783333333333333</v>
+        <v>2.783333333333333</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -6750,14 +6750,14 @@
         <v>70</v>
       </c>
       <c r="E234" t="n">
-        <v>20.8</v>
+        <v>18.8</v>
       </c>
       <c r="F234" t="n">
-        <v>3.466666666666667</v>
+        <v>3.133333333333333</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -6768,19 +6768,19 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C235" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D235" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E235" t="n">
-        <v>21.3</v>
+        <v>22.2</v>
       </c>
       <c r="F235" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -6795,19 +6795,19 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C236" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D236" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E236" t="n">
-        <v>21.4</v>
+        <v>20.4</v>
       </c>
       <c r="F236" t="n">
-        <v>3.566666666666667</v>
+        <v>3.4</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -6822,23 +6822,23 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D237" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E237" t="n">
-        <v>18.1</v>
+        <v>21.4</v>
       </c>
       <c r="F237" t="n">
-        <v>3.016666666666667</v>
+        <v>3.566666666666667</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -6849,13 +6849,13 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C238" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D238" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E238" t="n">
         <v>18.2</v>
@@ -6865,7 +6865,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -6876,19 +6876,19 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D239" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E239" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="F239" t="n">
-        <v>3.233333333333333</v>
+        <v>3.25</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -6903,19 +6903,19 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D240" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E240" t="n">
-        <v>20.4</v>
+        <v>21</v>
       </c>
       <c r="F240" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -6930,23 +6930,23 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C241" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D241" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E241" t="n">
-        <v>22.3</v>
+        <v>17</v>
       </c>
       <c r="F241" t="n">
-        <v>3.716666666666667</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -6957,23 +6957,23 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D242" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E242" t="n">
-        <v>23.6</v>
+        <v>17.1</v>
       </c>
       <c r="F242" t="n">
-        <v>3.933333333333333</v>
+        <v>2.85</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -6984,19 +6984,19 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C243" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D243" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E243" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="F243" t="n">
-        <v>3.316666666666667</v>
+        <v>3.3</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -7011,23 +7011,23 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C244" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D244" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E244" t="n">
-        <v>21.1</v>
+        <v>17.6</v>
       </c>
       <c r="F244" t="n">
-        <v>3.516666666666667</v>
+        <v>2.933333333333333</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -7038,23 +7038,23 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C245" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D245" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E245" t="n">
-        <v>19.3</v>
+        <v>20.2</v>
       </c>
       <c r="F245" t="n">
-        <v>3.216666666666667</v>
+        <v>3.366666666666667</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -7065,19 +7065,19 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D246" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E246" t="n">
-        <v>19.4</v>
+        <v>18</v>
       </c>
       <c r="F246" t="n">
-        <v>3.233333333333333</v>
+        <v>3</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -7092,23 +7092,23 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D247" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E247" t="n">
-        <v>20.7</v>
+        <v>19.5</v>
       </c>
       <c r="F247" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -7119,23 +7119,23 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C248" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D248" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E248" t="n">
-        <v>21.5</v>
+        <v>19</v>
       </c>
       <c r="F248" t="n">
-        <v>3.583333333333333</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -7146,23 +7146,23 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D249" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E249" t="n">
-        <v>19.7</v>
+        <v>19.2</v>
       </c>
       <c r="F249" t="n">
-        <v>3.283333333333333</v>
+        <v>3.2</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -7173,23 +7173,23 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C250" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D250" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E250" t="n">
-        <v>22.5</v>
+        <v>18.1</v>
       </c>
       <c r="F250" t="n">
-        <v>3.75</v>
+        <v>3.016666666666667</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -7200,19 +7200,19 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C251" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D251" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E251" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="F251" t="n">
-        <v>3.583333333333333</v>
+        <v>3.65</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -7227,23 +7227,23 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C252" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D252" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E252" t="n">
-        <v>21.7</v>
+        <v>19.6</v>
       </c>
       <c r="F252" t="n">
-        <v>3.616666666666667</v>
+        <v>3.266666666666667</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -7254,23 +7254,23 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C253" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D253" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E253" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="F253" t="n">
-        <v>3.15</v>
+        <v>3.133333333333333</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -7281,23 +7281,23 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C254" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D254" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E254" t="n">
-        <v>22.9</v>
+        <v>19.4</v>
       </c>
       <c r="F254" t="n">
-        <v>3.816666666666667</v>
+        <v>3.233333333333333</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -7317,10 +7317,10 @@
         <v>80</v>
       </c>
       <c r="E255" t="n">
-        <v>22.3</v>
+        <v>22.6</v>
       </c>
       <c r="F255" t="n">
-        <v>3.716666666666667</v>
+        <v>3.766666666666667</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -7335,23 +7335,23 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D256" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E256" t="n">
-        <v>20.7</v>
+        <v>19.8</v>
       </c>
       <c r="F256" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -7362,19 +7362,19 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D257" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E257" t="n">
-        <v>18.4</v>
+        <v>19.6</v>
       </c>
       <c r="F257" t="n">
-        <v>3.066666666666667</v>
+        <v>3.266666666666667</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -7389,19 +7389,19 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D258" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E258" t="n">
-        <v>19.8</v>
+        <v>18.4</v>
       </c>
       <c r="F258" t="n">
-        <v>3.3</v>
+        <v>3.066666666666667</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -7416,23 +7416,23 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D259" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E259" t="n">
-        <v>21.4</v>
+        <v>18.8</v>
       </c>
       <c r="F259" t="n">
-        <v>3.566666666666667</v>
+        <v>3.133333333333333</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -7443,23 +7443,23 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C260" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D260" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E260" t="n">
-        <v>22.2</v>
+        <v>19.7</v>
       </c>
       <c r="F260" t="n">
-        <v>3.7</v>
+        <v>3.283333333333333</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -7479,14 +7479,14 @@
         <v>70</v>
       </c>
       <c r="E261" t="n">
-        <v>18.1</v>
+        <v>21.1</v>
       </c>
       <c r="F261" t="n">
-        <v>3.016666666666667</v>
+        <v>3.516666666666667</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -7497,23 +7497,23 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C262" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D262" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E262" t="n">
-        <v>19.9</v>
+        <v>19.3</v>
       </c>
       <c r="F262" t="n">
-        <v>3.316666666666667</v>
+        <v>3.216666666666667</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -7533,10 +7533,10 @@
         <v>80</v>
       </c>
       <c r="E263" t="n">
-        <v>20</v>
+        <v>18.6</v>
       </c>
       <c r="F263" t="n">
-        <v>3.333333333333333</v>
+        <v>3.1</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -7551,19 +7551,19 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D264" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E264" t="n">
-        <v>17.6</v>
+        <v>15.4</v>
       </c>
       <c r="F264" t="n">
-        <v>2.933333333333333</v>
+        <v>2.566666666666667</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -7578,23 +7578,23 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C265" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D265" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E265" t="n">
-        <v>22.2</v>
+        <v>18.3</v>
       </c>
       <c r="F265" t="n">
-        <v>3.7</v>
+        <v>3.05</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -7605,19 +7605,19 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C266" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D266" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E266" t="n">
-        <v>18.5</v>
+        <v>19.7</v>
       </c>
       <c r="F266" t="n">
-        <v>3.083333333333333</v>
+        <v>3.283333333333333</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -7641,14 +7641,14 @@
         <v>100</v>
       </c>
       <c r="E267" t="n">
-        <v>19.9</v>
+        <v>20.9</v>
       </c>
       <c r="F267" t="n">
-        <v>3.316666666666667</v>
+        <v>3.483333333333333</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -7668,14 +7668,14 @@
         <v>80</v>
       </c>
       <c r="E268" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="F268" t="n">
-        <v>3.366666666666667</v>
+        <v>3.316666666666667</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -7695,14 +7695,14 @@
         <v>80</v>
       </c>
       <c r="E269" t="n">
-        <v>20.6</v>
+        <v>18.7</v>
       </c>
       <c r="F269" t="n">
-        <v>3.433333333333333</v>
+        <v>3.116666666666667</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -7713,23 +7713,23 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D270" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E270" t="n">
-        <v>16.4</v>
+        <v>23</v>
       </c>
       <c r="F270" t="n">
-        <v>2.733333333333333</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -7740,19 +7740,19 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C271" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D271" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E271" t="n">
-        <v>23.2</v>
+        <v>20.6</v>
       </c>
       <c r="F271" t="n">
-        <v>3.866666666666667</v>
+        <v>3.433333333333333</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -7767,23 +7767,23 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C272" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D272" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E272" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="F272" t="n">
-        <v>3.333333333333333</v>
+        <v>3.366666666666667</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -7803,14 +7803,14 @@
         <v>70</v>
       </c>
       <c r="E273" t="n">
-        <v>19.7</v>
+        <v>20.5</v>
       </c>
       <c r="F273" t="n">
-        <v>3.283333333333333</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -7821,23 +7821,23 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D274" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E274" t="n">
-        <v>19.4</v>
+        <v>22.1</v>
       </c>
       <c r="F274" t="n">
-        <v>3.233333333333333</v>
+        <v>3.683333333333333</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -7848,19 +7848,19 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D275" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E275" t="n">
-        <v>22.2</v>
+        <v>23.2</v>
       </c>
       <c r="F275" t="n">
-        <v>3.7</v>
+        <v>3.866666666666667</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -7875,19 +7875,19 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D276" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E276" t="n">
-        <v>17.8</v>
+        <v>14.8</v>
       </c>
       <c r="F276" t="n">
-        <v>2.966666666666667</v>
+        <v>2.466666666666667</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -7902,23 +7902,23 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D277" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E277" t="n">
-        <v>20.4</v>
+        <v>18.2</v>
       </c>
       <c r="F277" t="n">
-        <v>3.4</v>
+        <v>3.033333333333333</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -7929,23 +7929,23 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C278" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D278" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E278" t="n">
-        <v>22.1</v>
+        <v>19</v>
       </c>
       <c r="F278" t="n">
-        <v>3.683333333333333</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -7956,19 +7956,19 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D279" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E279" t="n">
-        <v>20.7</v>
+        <v>23.3</v>
       </c>
       <c r="F279" t="n">
-        <v>3.45</v>
+        <v>3.883333333333333</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -7983,19 +7983,19 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C280" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D280" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E280" t="n">
-        <v>21.3</v>
+        <v>18.6</v>
       </c>
       <c r="F280" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -8010,19 +8010,19 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D281" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E281" t="n">
-        <v>19.4</v>
+        <v>19</v>
       </c>
       <c r="F281" t="n">
-        <v>3.233333333333333</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -8037,23 +8037,23 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C282" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D282" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E282" t="n">
-        <v>18.1</v>
+        <v>21.5</v>
       </c>
       <c r="F282" t="n">
-        <v>3.016666666666667</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -8073,14 +8073,14 @@
         <v>90</v>
       </c>
       <c r="E283" t="n">
-        <v>17.5</v>
+        <v>21.2</v>
       </c>
       <c r="F283" t="n">
-        <v>2.916666666666667</v>
+        <v>3.533333333333333</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -8091,19 +8091,19 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D284" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E284" t="n">
-        <v>22.4</v>
+        <v>20.3</v>
       </c>
       <c r="F284" t="n">
-        <v>3.733333333333333</v>
+        <v>3.383333333333333</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -8127,14 +8127,14 @@
         <v>70</v>
       </c>
       <c r="E285" t="n">
-        <v>18.6</v>
+        <v>21.9</v>
       </c>
       <c r="F285" t="n">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -8145,23 +8145,23 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D286" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E286" t="n">
-        <v>24.8</v>
+        <v>19.5</v>
       </c>
       <c r="F286" t="n">
-        <v>4.133333333333334</v>
+        <v>3.25</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -8172,23 +8172,23 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C287" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D287" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E287" t="n">
-        <v>17.3</v>
+        <v>18.9</v>
       </c>
       <c r="F287" t="n">
-        <v>2.883333333333333</v>
+        <v>3.15</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -8199,19 +8199,19 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C288" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D288" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E288" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="F288" t="n">
-        <v>3.516666666666667</v>
+        <v>3.483333333333333</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -8226,23 +8226,23 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C289" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D289" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E289" t="n">
-        <v>23.1</v>
+        <v>19.9</v>
       </c>
       <c r="F289" t="n">
-        <v>3.85</v>
+        <v>3.316666666666667</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -8262,14 +8262,14 @@
         <v>80</v>
       </c>
       <c r="E290" t="n">
-        <v>19.9</v>
+        <v>23.7</v>
       </c>
       <c r="F290" t="n">
-        <v>3.316666666666667</v>
+        <v>3.95</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -8289,14 +8289,14 @@
         <v>80</v>
       </c>
       <c r="E291" t="n">
-        <v>21.9</v>
+        <v>17.2</v>
       </c>
       <c r="F291" t="n">
-        <v>3.65</v>
+        <v>2.866666666666667</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -8307,19 +8307,19 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C292" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D292" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E292" t="n">
-        <v>19.9</v>
+        <v>18.7</v>
       </c>
       <c r="F292" t="n">
-        <v>3.316666666666667</v>
+        <v>3.116666666666667</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -8343,10 +8343,10 @@
         <v>80</v>
       </c>
       <c r="E293" t="n">
-        <v>18.2</v>
+        <v>20</v>
       </c>
       <c r="F293" t="n">
-        <v>3.033333333333333</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -8361,23 +8361,23 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D294" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E294" t="n">
-        <v>20.5</v>
+        <v>19.5</v>
       </c>
       <c r="F294" t="n">
-        <v>3.416666666666667</v>
+        <v>3.25</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -8388,19 +8388,19 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C295" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D295" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E295" t="n">
-        <v>21.4</v>
+        <v>21</v>
       </c>
       <c r="F295" t="n">
-        <v>3.566666666666667</v>
+        <v>3.5</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -8415,19 +8415,19 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D296" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E296" t="n">
-        <v>19.4</v>
+        <v>18.3</v>
       </c>
       <c r="F296" t="n">
-        <v>3.233333333333333</v>
+        <v>3.05</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -8442,19 +8442,19 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D297" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E297" t="n">
-        <v>20.3</v>
+        <v>21.4</v>
       </c>
       <c r="F297" t="n">
-        <v>3.383333333333333</v>
+        <v>3.566666666666667</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -8478,10 +8478,10 @@
         <v>80</v>
       </c>
       <c r="E298" t="n">
-        <v>20.3</v>
+        <v>21.9</v>
       </c>
       <c r="F298" t="n">
-        <v>3.383333333333333</v>
+        <v>3.65</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -8496,19 +8496,19 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C299" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D299" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E299" t="n">
-        <v>20.7</v>
+        <v>22</v>
       </c>
       <c r="F299" t="n">
-        <v>3.45</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -8523,19 +8523,19 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C300" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D300" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E300" t="n">
-        <v>23.4</v>
+        <v>20.9</v>
       </c>
       <c r="F300" t="n">
-        <v>3.9</v>
+        <v>3.483333333333333</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -8550,19 +8550,19 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D301" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E301" t="n">
-        <v>21.3</v>
+        <v>22.4</v>
       </c>
       <c r="F301" t="n">
-        <v>3.55</v>
+        <v>3.733333333333333</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -8577,19 +8577,19 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C302" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D302" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E302" t="n">
-        <v>22.7</v>
+        <v>21.9</v>
       </c>
       <c r="F302" t="n">
-        <v>3.783333333333333</v>
+        <v>3.65</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -8604,19 +8604,19 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C303" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D303" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E303" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="F303" t="n">
-        <v>3.133333333333333</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -8631,19 +8631,19 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D304" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E304" t="n">
-        <v>20.8</v>
+        <v>20.2</v>
       </c>
       <c r="F304" t="n">
-        <v>3.466666666666667</v>
+        <v>3.366666666666667</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -8667,14 +8667,14 @@
         <v>80</v>
       </c>
       <c r="E305" t="n">
-        <v>21.2</v>
+        <v>19</v>
       </c>
       <c r="F305" t="n">
-        <v>3.533333333333333</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -8685,19 +8685,19 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D306" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E306" t="n">
-        <v>22.2</v>
+        <v>21.3</v>
       </c>
       <c r="F306" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -8712,19 +8712,19 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D307" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E307" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="F307" t="n">
-        <v>2.916666666666667</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -8739,23 +8739,23 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C308" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D308" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E308" t="n">
-        <v>22.6</v>
+        <v>19.1</v>
       </c>
       <c r="F308" t="n">
-        <v>3.766666666666667</v>
+        <v>3.183333333333333</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -8766,19 +8766,19 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C309" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D309" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E309" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="F309" t="n">
-        <v>3.4</v>
+        <v>3.383333333333333</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -8793,23 +8793,23 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C310" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D310" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E310" t="n">
-        <v>20.6</v>
+        <v>18.6</v>
       </c>
       <c r="F310" t="n">
-        <v>3.433333333333333</v>
+        <v>3.1</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -8820,23 +8820,23 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C311" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D311" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E311" t="n">
-        <v>16.8</v>
+        <v>19.7</v>
       </c>
       <c r="F311" t="n">
-        <v>2.8</v>
+        <v>3.283333333333333</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -8847,23 +8847,23 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D312" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E312" t="n">
-        <v>22.5</v>
+        <v>19.4</v>
       </c>
       <c r="F312" t="n">
-        <v>3.75</v>
+        <v>3.233333333333333</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -8874,23 +8874,23 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C313" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D313" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E313" t="n">
-        <v>21.2</v>
+        <v>18</v>
       </c>
       <c r="F313" t="n">
-        <v>3.533333333333333</v>
+        <v>3</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -8901,23 +8901,23 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C314" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D314" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E314" t="n">
-        <v>19</v>
+        <v>20.5</v>
       </c>
       <c r="F314" t="n">
-        <v>3.166666666666667</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -8955,23 +8955,23 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C316" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D316" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E316" t="n">
-        <v>22.7</v>
+        <v>17.2</v>
       </c>
       <c r="F316" t="n">
-        <v>3.783333333333333</v>
+        <v>2.866666666666667</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -8982,19 +8982,19 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C317" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D317" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E317" t="n">
-        <v>20</v>
+        <v>18.7</v>
       </c>
       <c r="F317" t="n">
-        <v>3.333333333333333</v>
+        <v>3.116666666666667</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -9009,19 +9009,19 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D318" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E318" t="n">
-        <v>19.4</v>
+        <v>19.9</v>
       </c>
       <c r="F318" t="n">
-        <v>3.233333333333333</v>
+        <v>3.316666666666667</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -9045,10 +9045,10 @@
         <v>60</v>
       </c>
       <c r="E319" t="n">
-        <v>21</v>
+        <v>18.8</v>
       </c>
       <c r="F319" t="n">
-        <v>3.5</v>
+        <v>3.133333333333333</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -9063,19 +9063,19 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C320" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D320" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E320" t="n">
-        <v>22</v>
+        <v>20.4</v>
       </c>
       <c r="F320" t="n">
-        <v>3.666666666666667</v>
+        <v>3.4</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -9090,23 +9090,23 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C321" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D321" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E321" t="n">
-        <v>23.8</v>
+        <v>16.8</v>
       </c>
       <c r="F321" t="n">
-        <v>3.966666666666667</v>
+        <v>2.8</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -9117,23 +9117,23 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C322" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D322" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E322" t="n">
-        <v>17.6</v>
+        <v>21.9</v>
       </c>
       <c r="F322" t="n">
-        <v>2.933333333333333</v>
+        <v>3.65</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -9153,10 +9153,10 @@
         <v>80</v>
       </c>
       <c r="E323" t="n">
-        <v>18.9</v>
+        <v>19.4</v>
       </c>
       <c r="F323" t="n">
-        <v>3.15</v>
+        <v>3.233333333333333</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -9171,23 +9171,23 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C324" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D324" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E324" t="n">
-        <v>19.6</v>
+        <v>21.2</v>
       </c>
       <c r="F324" t="n">
-        <v>3.266666666666667</v>
+        <v>3.533333333333333</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -9198,23 +9198,23 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C325" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D325" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E325" t="n">
-        <v>18.4</v>
+        <v>18.9</v>
       </c>
       <c r="F325" t="n">
-        <v>3.066666666666667</v>
+        <v>3.15</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -9225,19 +9225,19 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C326" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D326" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E326" t="n">
-        <v>23.6</v>
+        <v>22.1</v>
       </c>
       <c r="F326" t="n">
-        <v>3.933333333333333</v>
+        <v>3.683333333333333</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -9252,23 +9252,23 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C327" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D327" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E327" t="n">
-        <v>21.8</v>
+        <v>19</v>
       </c>
       <c r="F327" t="n">
-        <v>3.633333333333333</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -9279,23 +9279,23 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D328" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E328" t="n">
-        <v>19.3</v>
+        <v>21</v>
       </c>
       <c r="F328" t="n">
-        <v>3.216666666666667</v>
+        <v>3.5</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -9306,23 +9306,23 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C329" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D329" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E329" t="n">
-        <v>20.4</v>
+        <v>17</v>
       </c>
       <c r="F329" t="n">
-        <v>3.4</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -9333,19 +9333,19 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C330" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D330" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E330" t="n">
-        <v>17.3</v>
+        <v>18</v>
       </c>
       <c r="F330" t="n">
-        <v>2.883333333333333</v>
+        <v>3</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -9360,19 +9360,19 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C331" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D331" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E331" t="n">
-        <v>18.7</v>
+        <v>16.3</v>
       </c>
       <c r="F331" t="n">
-        <v>3.116666666666667</v>
+        <v>2.716666666666667</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -9387,23 +9387,23 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D332" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E332" t="n">
-        <v>18</v>
+        <v>20.4</v>
       </c>
       <c r="F332" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -9414,19 +9414,19 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C333" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D333" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E333" t="n">
-        <v>17.4</v>
+        <v>19.2</v>
       </c>
       <c r="F333" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -9441,19 +9441,19 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D334" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E334" t="n">
-        <v>20</v>
+        <v>18.4</v>
       </c>
       <c r="F334" t="n">
-        <v>3.333333333333333</v>
+        <v>3.066666666666667</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -9468,23 +9468,23 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C335" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D335" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E335" t="n">
-        <v>20.4</v>
+        <v>18.8</v>
       </c>
       <c r="F335" t="n">
-        <v>3.4</v>
+        <v>3.133333333333333</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -9495,23 +9495,23 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C336" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D336" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E336" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="F336" t="n">
-        <v>3.116666666666667</v>
+        <v>3.1</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -9522,23 +9522,23 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C337" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D337" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E337" t="n">
-        <v>17.5</v>
+        <v>18.1</v>
       </c>
       <c r="F337" t="n">
-        <v>2.916666666666667</v>
+        <v>3.016666666666667</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -9558,10 +9558,10 @@
         <v>70</v>
       </c>
       <c r="E338" t="n">
-        <v>19</v>
+        <v>16.4</v>
       </c>
       <c r="F338" t="n">
-        <v>3.166666666666667</v>
+        <v>2.733333333333333</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -9576,23 +9576,23 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C339" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D339" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E339" t="n">
-        <v>19.2</v>
+        <v>21.8</v>
       </c>
       <c r="F339" t="n">
-        <v>3.2</v>
+        <v>3.633333333333333</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -9603,23 +9603,23 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C340" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D340" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E340" t="n">
-        <v>21.4</v>
+        <v>17.6</v>
       </c>
       <c r="F340" t="n">
-        <v>3.566666666666667</v>
+        <v>2.933333333333333</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -9630,19 +9630,19 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C341" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D341" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E341" t="n">
-        <v>20.2</v>
+        <v>17.5</v>
       </c>
       <c r="F341" t="n">
-        <v>3.366666666666667</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -9657,23 +9657,23 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C342" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D342" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E342" t="n">
-        <v>17.6</v>
+        <v>24.2</v>
       </c>
       <c r="F342" t="n">
-        <v>2.933333333333333</v>
+        <v>4.033333333333333</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -9684,23 +9684,23 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C343" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D343" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E343" t="n">
-        <v>19</v>
+        <v>20.1</v>
       </c>
       <c r="F343" t="n">
-        <v>3.166666666666667</v>
+        <v>3.35</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -9711,19 +9711,19 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C344" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D344" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E344" t="n">
-        <v>22.7</v>
+        <v>20.1</v>
       </c>
       <c r="F344" t="n">
-        <v>3.783333333333333</v>
+        <v>3.35</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -9738,23 +9738,23 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D345" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E345" t="n">
-        <v>18.6</v>
+        <v>21.2</v>
       </c>
       <c r="F345" t="n">
-        <v>3.1</v>
+        <v>3.533333333333333</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -9774,14 +9774,14 @@
         <v>70</v>
       </c>
       <c r="E346" t="n">
-        <v>18.5</v>
+        <v>21.7</v>
       </c>
       <c r="F346" t="n">
-        <v>3.083333333333333</v>
+        <v>3.616666666666667</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -9792,23 +9792,23 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C347" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D347" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E347" t="n">
-        <v>17.9</v>
+        <v>21.2</v>
       </c>
       <c r="F347" t="n">
-        <v>2.983333333333333</v>
+        <v>3.533333333333333</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -9828,10 +9828,10 @@
         <v>50</v>
       </c>
       <c r="E348" t="n">
-        <v>20.8</v>
+        <v>21.7</v>
       </c>
       <c r="F348" t="n">
-        <v>3.466666666666667</v>
+        <v>3.616666666666667</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -9846,23 +9846,23 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C349" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D349" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E349" t="n">
-        <v>21.2</v>
+        <v>18.9</v>
       </c>
       <c r="F349" t="n">
-        <v>3.533333333333333</v>
+        <v>3.15</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -9873,23 +9873,23 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C350" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D350" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E350" t="n">
-        <v>22.9</v>
+        <v>19.5</v>
       </c>
       <c r="F350" t="n">
-        <v>3.816666666666667</v>
+        <v>3.25</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -9909,14 +9909,14 @@
         <v>90</v>
       </c>
       <c r="E351" t="n">
-        <v>21.9</v>
+        <v>19.5</v>
       </c>
       <c r="F351" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -9927,19 +9927,19 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C352" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D352" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E352" t="n">
-        <v>17.5</v>
+        <v>17.9</v>
       </c>
       <c r="F352" t="n">
-        <v>2.916666666666667</v>
+        <v>2.983333333333333</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -9954,19 +9954,19 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C353" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D353" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E353" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="F353" t="n">
-        <v>3.433333333333333</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -9990,10 +9990,10 @@
         <v>90</v>
       </c>
       <c r="E354" t="n">
-        <v>21.6</v>
+        <v>20.5</v>
       </c>
       <c r="F354" t="n">
-        <v>3.6</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -10017,10 +10017,10 @@
         <v>80</v>
       </c>
       <c r="E355" t="n">
-        <v>21.3</v>
+        <v>21.6</v>
       </c>
       <c r="F355" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -10035,23 +10035,23 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C356" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D356" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E356" t="n">
-        <v>22</v>
+        <v>18.1</v>
       </c>
       <c r="F356" t="n">
-        <v>3.666666666666667</v>
+        <v>3.016666666666667</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -10062,19 +10062,19 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D357" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E357" t="n">
-        <v>21.4</v>
+        <v>20.2</v>
       </c>
       <c r="F357" t="n">
-        <v>3.566666666666667</v>
+        <v>3.366666666666667</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -10089,23 +10089,23 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D358" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E358" t="n">
-        <v>21.9</v>
+        <v>18.9</v>
       </c>
       <c r="F358" t="n">
-        <v>3.65</v>
+        <v>3.15</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -10116,23 +10116,23 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C359" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D359" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E359" t="n">
-        <v>17.3</v>
+        <v>21.4</v>
       </c>
       <c r="F359" t="n">
-        <v>2.883333333333333</v>
+        <v>3.566666666666667</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -10143,19 +10143,19 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C360" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D360" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E360" t="n">
-        <v>22.5</v>
+        <v>21.7</v>
       </c>
       <c r="F360" t="n">
-        <v>3.75</v>
+        <v>3.616666666666667</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -10170,23 +10170,23 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D361" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E361" t="n">
-        <v>22.4</v>
+        <v>18.4</v>
       </c>
       <c r="F361" t="n">
-        <v>3.733333333333333</v>
+        <v>3.066666666666667</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -10206,10 +10206,10 @@
         <v>80</v>
       </c>
       <c r="E362" t="n">
-        <v>20.7</v>
+        <v>20.2</v>
       </c>
       <c r="F362" t="n">
-        <v>3.45</v>
+        <v>3.366666666666667</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -10233,10 +10233,10 @@
         <v>90</v>
       </c>
       <c r="E363" t="n">
-        <v>19.6</v>
+        <v>18.9</v>
       </c>
       <c r="F363" t="n">
-        <v>3.266666666666667</v>
+        <v>3.15</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -10251,19 +10251,19 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C364" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D364" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E364" t="n">
-        <v>21.3</v>
+        <v>20.6</v>
       </c>
       <c r="F364" t="n">
-        <v>3.55</v>
+        <v>3.433333333333333</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -10278,23 +10278,23 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C365" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D365" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E365" t="n">
-        <v>20</v>
+        <v>22.4</v>
       </c>
       <c r="F365" t="n">
-        <v>3.333333333333333</v>
+        <v>3.733333333333333</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -10305,23 +10305,23 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C366" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D366" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E366" t="n">
-        <v>23.4</v>
+        <v>17.6</v>
       </c>
       <c r="F366" t="n">
-        <v>3.9</v>
+        <v>2.933333333333333</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -10332,19 +10332,19 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C367" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D367" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E367" t="n">
-        <v>20.9</v>
+        <v>18.2</v>
       </c>
       <c r="F367" t="n">
-        <v>3.483333333333333</v>
+        <v>3.033333333333333</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -10359,23 +10359,23 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C368" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D368" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E368" t="n">
-        <v>22.3</v>
+        <v>18</v>
       </c>
       <c r="F368" t="n">
-        <v>3.716666666666667</v>
+        <v>3</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -10386,19 +10386,19 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C369" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D369" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E369" t="n">
-        <v>22.3</v>
+        <v>21.8</v>
       </c>
       <c r="F369" t="n">
-        <v>3.716666666666667</v>
+        <v>3.633333333333333</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -10413,19 +10413,19 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C370" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D370" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E370" t="n">
-        <v>19.7</v>
+        <v>15.9</v>
       </c>
       <c r="F370" t="n">
-        <v>3.283333333333333</v>
+        <v>2.65</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -10449,10 +10449,10 @@
         <v>80</v>
       </c>
       <c r="E371" t="n">
-        <v>22.1</v>
+        <v>21</v>
       </c>
       <c r="F371" t="n">
-        <v>3.683333333333333</v>
+        <v>3.5</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -10476,14 +10476,14 @@
         <v>90</v>
       </c>
       <c r="E372" t="n">
-        <v>18.9</v>
+        <v>22.6</v>
       </c>
       <c r="F372" t="n">
-        <v>3.15</v>
+        <v>3.766666666666667</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -10494,23 +10494,23 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D373" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E373" t="n">
-        <v>19</v>
+        <v>22.7</v>
       </c>
       <c r="F373" t="n">
-        <v>3.166666666666667</v>
+        <v>3.783333333333333</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -10521,19 +10521,19 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C374" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D374" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E374" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="F374" t="n">
-        <v>3.533333333333333</v>
+        <v>3.566666666666667</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -10557,14 +10557,14 @@
         <v>70</v>
       </c>
       <c r="E375" t="n">
-        <v>17.5</v>
+        <v>21.3</v>
       </c>
       <c r="F375" t="n">
-        <v>2.916666666666667</v>
+        <v>3.55</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -10575,19 +10575,19 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C376" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D376" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E376" t="n">
-        <v>22.4</v>
+        <v>21.8</v>
       </c>
       <c r="F376" t="n">
-        <v>3.733333333333333</v>
+        <v>3.633333333333333</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -10602,19 +10602,19 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C377" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D377" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E377" t="n">
-        <v>18.7</v>
+        <v>17.4</v>
       </c>
       <c r="F377" t="n">
-        <v>3.116666666666667</v>
+        <v>2.9</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -10629,19 +10629,19 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C378" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D378" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E378" t="n">
-        <v>19.4</v>
+        <v>22.7</v>
       </c>
       <c r="F378" t="n">
-        <v>3.233333333333333</v>
+        <v>3.783333333333333</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -10656,19 +10656,19 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C379" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D379" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E379" t="n">
-        <v>22.4</v>
+        <v>21</v>
       </c>
       <c r="F379" t="n">
-        <v>3.733333333333333</v>
+        <v>3.5</v>
       </c>
       <c r="G379" t="inlineStr">
         <is>
@@ -10683,23 +10683,23 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C380" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D380" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E380" t="n">
-        <v>17.1</v>
+        <v>20</v>
       </c>
       <c r="F380" t="n">
-        <v>2.85</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -10710,23 +10710,23 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C381" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D381" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E381" t="n">
-        <v>18.5</v>
+        <v>17.9</v>
       </c>
       <c r="F381" t="n">
-        <v>3.083333333333333</v>
+        <v>2.983333333333333</v>
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -10737,23 +10737,23 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D382" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E382" t="n">
-        <v>22.7</v>
+        <v>19.8</v>
       </c>
       <c r="F382" t="n">
-        <v>3.783333333333333</v>
+        <v>3.3</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -10764,23 +10764,23 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C383" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D383" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E383" t="n">
-        <v>21.4</v>
+        <v>19.9</v>
       </c>
       <c r="F383" t="n">
-        <v>3.566666666666667</v>
+        <v>3.316666666666667</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -10791,23 +10791,23 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C384" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D384" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E384" t="n">
-        <v>17.8</v>
+        <v>21.9</v>
       </c>
       <c r="F384" t="n">
-        <v>2.966666666666667</v>
+        <v>3.65</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -10827,10 +10827,10 @@
         <v>80</v>
       </c>
       <c r="E385" t="n">
-        <v>22</v>
+        <v>22.4</v>
       </c>
       <c r="F385" t="n">
-        <v>3.666666666666667</v>
+        <v>3.733333333333333</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -10845,19 +10845,19 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C386" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D386" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E386" t="n">
-        <v>21.8</v>
+        <v>23</v>
       </c>
       <c r="F386" t="n">
-        <v>3.633333333333333</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -10872,19 +10872,19 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C387" t="n">
+        <v>2</v>
+      </c>
+      <c r="D387" t="n">
+        <v>80</v>
+      </c>
+      <c r="E387" t="n">
+        <v>18</v>
+      </c>
+      <c r="F387" t="n">
         <v>3</v>
-      </c>
-      <c r="D387" t="n">
-        <v>70</v>
-      </c>
-      <c r="E387" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="F387" t="n">
-        <v>2.933333333333333</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -10899,19 +10899,19 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C388" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D388" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E388" t="n">
-        <v>20.1</v>
+        <v>22</v>
       </c>
       <c r="F388" t="n">
-        <v>3.35</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -10926,23 +10926,23 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C389" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D389" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E389" t="n">
-        <v>21.5</v>
+        <v>20</v>
       </c>
       <c r="F389" t="n">
-        <v>3.583333333333333</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -10953,23 +10953,23 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C390" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D390" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E390" t="n">
-        <v>21.5</v>
+        <v>18.8</v>
       </c>
       <c r="F390" t="n">
-        <v>3.583333333333333</v>
+        <v>3.133333333333333</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -10980,19 +10980,19 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C391" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D391" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E391" t="n">
-        <v>20.1</v>
+        <v>20.9</v>
       </c>
       <c r="F391" t="n">
-        <v>3.35</v>
+        <v>3.483333333333333</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -11007,19 +11007,19 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C392" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D392" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E392" t="n">
-        <v>17.7</v>
+        <v>19.8</v>
       </c>
       <c r="F392" t="n">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
@@ -11043,14 +11043,14 @@
         <v>70</v>
       </c>
       <c r="E393" t="n">
-        <v>19.5</v>
+        <v>22.7</v>
       </c>
       <c r="F393" t="n">
-        <v>3.25</v>
+        <v>3.783333333333333</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -11061,23 +11061,23 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C394" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D394" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E394" t="n">
-        <v>15.8</v>
+        <v>21.3</v>
       </c>
       <c r="F394" t="n">
-        <v>2.633333333333333</v>
+        <v>3.55</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -11088,19 +11088,19 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C395" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D395" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E395" t="n">
-        <v>23</v>
+        <v>21.2</v>
       </c>
       <c r="F395" t="n">
-        <v>3.833333333333333</v>
+        <v>3.533333333333333</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -11115,19 +11115,19 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D396" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E396" t="n">
-        <v>17.3</v>
+        <v>16.8</v>
       </c>
       <c r="F396" t="n">
-        <v>2.883333333333333</v>
+        <v>2.8</v>
       </c>
       <c r="G396" t="inlineStr">
         <is>
@@ -11142,23 +11142,23 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C397" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D397" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E397" t="n">
-        <v>19.3</v>
+        <v>20.5</v>
       </c>
       <c r="F397" t="n">
-        <v>3.216666666666667</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -11178,10 +11178,10 @@
         <v>100</v>
       </c>
       <c r="E398" t="n">
-        <v>19.4</v>
+        <v>16.4</v>
       </c>
       <c r="F398" t="n">
-        <v>3.233333333333333</v>
+        <v>2.733333333333333</v>
       </c>
       <c r="G398" t="inlineStr">
         <is>
@@ -11196,23 +11196,23 @@
         </is>
       </c>
       <c r="B399" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C399" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D399" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E399" t="n">
-        <v>19.9</v>
+        <v>23.2</v>
       </c>
       <c r="F399" t="n">
-        <v>3.316666666666667</v>
+        <v>3.866666666666667</v>
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -11232,14 +11232,14 @@
         <v>90</v>
       </c>
       <c r="E400" t="n">
-        <v>17.2</v>
+        <v>20.5</v>
       </c>
       <c r="F400" t="n">
-        <v>2.866666666666667</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="G400" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -11250,23 +11250,23 @@
         </is>
       </c>
       <c r="B401" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C401" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D401" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E401" t="n">
-        <v>18.8</v>
+        <v>21.8</v>
       </c>
       <c r="F401" t="n">
-        <v>3.133333333333333</v>
+        <v>3.633333333333333</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>

--- a/SPRINT_MATEMÁTICA/dados_geral.xlsx
+++ b/SPRINT_MATEMÁTICA/dados_geral.xlsx
@@ -477,19 +477,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>30</v>
+        <v>31.6</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>5.266666666666667</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E3" t="n">
-        <v>34.4</v>
+        <v>24.5</v>
       </c>
       <c r="F3" t="n">
-        <v>5.733333333333333</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>33.4</v>
+        <v>27.2</v>
       </c>
       <c r="F4" t="n">
-        <v>5.566666666666666</v>
+        <v>4.533333333333333</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -558,19 +558,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>32.6</v>
+        <v>30.7</v>
       </c>
       <c r="F5" t="n">
-        <v>5.433333333333334</v>
+        <v>5.116666666666666</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -585,19 +585,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E6" t="n">
-        <v>31.2</v>
+        <v>28.9</v>
       </c>
       <c r="F6" t="n">
-        <v>5.2</v>
+        <v>4.816666666666666</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -612,19 +612,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>31.6</v>
+        <v>27.2</v>
       </c>
       <c r="F7" t="n">
-        <v>5.266666666666667</v>
+        <v>4.533333333333333</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -648,10 +648,10 @@
         <v>30</v>
       </c>
       <c r="E8" t="n">
-        <v>33.4</v>
+        <v>30.6</v>
       </c>
       <c r="F8" t="n">
-        <v>5.566666666666666</v>
+        <v>5.1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -666,19 +666,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E9" t="n">
-        <v>29.7</v>
+        <v>27.9</v>
       </c>
       <c r="F9" t="n">
-        <v>4.95</v>
+        <v>4.65</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -693,19 +693,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>32.4</v>
+        <v>29.7</v>
       </c>
       <c r="F10" t="n">
-        <v>5.4</v>
+        <v>4.95</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -729,10 +729,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>32.4</v>
+        <v>28</v>
       </c>
       <c r="F11" t="n">
-        <v>5.4</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -747,19 +747,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E12" t="n">
-        <v>31.9</v>
+        <v>33.9</v>
       </c>
       <c r="F12" t="n">
-        <v>5.316666666666666</v>
+        <v>5.65</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -774,19 +774,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E13" t="n">
-        <v>32.2</v>
+        <v>26.9</v>
       </c>
       <c r="F13" t="n">
-        <v>5.366666666666666</v>
+        <v>4.483333333333333</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -810,10 +810,10 @@
         <v>20</v>
       </c>
       <c r="E14" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="F14" t="n">
-        <v>4.95</v>
+        <v>4.983333333333333</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -828,19 +828,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E15" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="F15" t="n">
-        <v>4.566666666666666</v>
+        <v>4.633333333333334</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -855,19 +855,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E16" t="n">
-        <v>29.8</v>
+        <v>28.1</v>
       </c>
       <c r="F16" t="n">
-        <v>4.966666666666667</v>
+        <v>4.683333333333334</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -882,19 +882,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E17" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="F17" t="n">
-        <v>4.95</v>
+        <v>4.966666666666667</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -909,19 +909,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E18" t="n">
-        <v>31.4</v>
+        <v>30.5</v>
       </c>
       <c r="F18" t="n">
-        <v>5.233333333333333</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -936,19 +936,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E19" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>5.016666666666667</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
         <v>30</v>
       </c>
       <c r="E20" t="n">
-        <v>31.8</v>
+        <v>28.9</v>
       </c>
       <c r="F20" t="n">
-        <v>5.3</v>
+        <v>4.816666666666666</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -990,19 +990,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E21" t="n">
-        <v>28.4</v>
+        <v>31.8</v>
       </c>
       <c r="F21" t="n">
-        <v>4.733333333333333</v>
+        <v>5.3</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1017,19 +1017,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E22" t="n">
-        <v>28.8</v>
+        <v>31.2</v>
       </c>
       <c r="F22" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1053,10 +1053,10 @@
         <v>30</v>
       </c>
       <c r="E23" t="n">
-        <v>32.8</v>
+        <v>32.5</v>
       </c>
       <c r="F23" t="n">
-        <v>5.466666666666667</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1071,19 +1071,19 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6</v>
+      </c>
+      <c r="D24" t="n">
+        <v>40</v>
+      </c>
+      <c r="E24" t="n">
+        <v>30</v>
+      </c>
+      <c r="F24" t="n">
         <v>5</v>
-      </c>
-      <c r="C24" t="n">
-        <v>5</v>
-      </c>
-      <c r="D24" t="n">
-        <v>50</v>
-      </c>
-      <c r="E24" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F24" t="n">
-        <v>4.566666666666666</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1098,19 +1098,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E25" t="n">
-        <v>27.7</v>
+        <v>32.5</v>
       </c>
       <c r="F25" t="n">
-        <v>4.616666666666666</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1125,19 +1125,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>28.6</v>
+        <v>29.3</v>
       </c>
       <c r="F26" t="n">
-        <v>4.766666666666667</v>
+        <v>4.883333333333334</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E27" t="n">
-        <v>28.9</v>
+        <v>29.8</v>
       </c>
       <c r="F27" t="n">
-        <v>4.816666666666666</v>
+        <v>4.966666666666667</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1179,19 +1179,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E28" t="n">
-        <v>28.2</v>
+        <v>30.3</v>
       </c>
       <c r="F28" t="n">
-        <v>4.7</v>
+        <v>5.05</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1206,19 +1206,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E29" t="n">
-        <v>28.1</v>
+        <v>35.4</v>
       </c>
       <c r="F29" t="n">
-        <v>4.683333333333334</v>
+        <v>5.9</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1233,19 +1233,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D30" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E30" t="n">
-        <v>31.8</v>
+        <v>28.4</v>
       </c>
       <c r="F30" t="n">
-        <v>5.3</v>
+        <v>4.733333333333333</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1269,10 +1269,10 @@
         <v>20</v>
       </c>
       <c r="E31" t="n">
-        <v>32.4</v>
+        <v>29.8</v>
       </c>
       <c r="F31" t="n">
-        <v>5.4</v>
+        <v>4.966666666666667</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1296,10 +1296,10 @@
         <v>40</v>
       </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>25.3</v>
       </c>
       <c r="F32" t="n">
-        <v>5</v>
+        <v>4.216666666666667</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1314,19 +1314,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E33" t="n">
-        <v>30.9</v>
+        <v>33.7</v>
       </c>
       <c r="F33" t="n">
-        <v>5.15</v>
+        <v>5.616666666666666</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1341,19 +1341,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C34" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E34" t="n">
-        <v>28.9</v>
+        <v>29.8</v>
       </c>
       <c r="F34" t="n">
-        <v>4.816666666666666</v>
+        <v>4.966666666666667</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1368,13 +1368,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D35" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E35" t="n">
         <v>32.5</v>
@@ -1395,19 +1395,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D36" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E36" t="n">
-        <v>30.4</v>
+        <v>29.5</v>
       </c>
       <c r="F36" t="n">
-        <v>5.066666666666666</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1422,19 +1422,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D37" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E37" t="n">
-        <v>26</v>
+        <v>30.4</v>
       </c>
       <c r="F37" t="n">
-        <v>4.333333333333333</v>
+        <v>5.066666666666666</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1449,13 +1449,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D38" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E38" t="n">
         <v>29.4</v>
@@ -1476,19 +1476,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C39" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E39" t="n">
-        <v>29.5</v>
+        <v>30.8</v>
       </c>
       <c r="F39" t="n">
-        <v>4.916666666666667</v>
+        <v>5.133333333333334</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1503,19 +1503,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E40" t="n">
-        <v>26.7</v>
+        <v>29.8</v>
       </c>
       <c r="F40" t="n">
-        <v>4.45</v>
+        <v>4.966666666666667</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1530,19 +1530,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D41" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E41" t="n">
-        <v>26.9</v>
+        <v>35</v>
       </c>
       <c r="F41" t="n">
-        <v>4.483333333333333</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1566,10 +1566,10 @@
         <v>40</v>
       </c>
       <c r="E42" t="n">
-        <v>31.5</v>
+        <v>30.4</v>
       </c>
       <c r="F42" t="n">
-        <v>5.25</v>
+        <v>5.066666666666666</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1584,19 +1584,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C43" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E43" t="n">
-        <v>29.2</v>
+        <v>30.5</v>
       </c>
       <c r="F43" t="n">
-        <v>4.866666666666666</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1611,19 +1611,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E44" t="n">
-        <v>27.7</v>
+        <v>28.8</v>
       </c>
       <c r="F44" t="n">
-        <v>4.616666666666666</v>
+        <v>4.8</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1647,10 +1647,10 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>31.3</v>
+        <v>30.4</v>
       </c>
       <c r="F45" t="n">
-        <v>5.216666666666667</v>
+        <v>5.066666666666666</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1665,19 +1665,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C46" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E46" t="n">
-        <v>29.7</v>
+        <v>27.9</v>
       </c>
       <c r="F46" t="n">
-        <v>4.95</v>
+        <v>4.65</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1692,19 +1692,19 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D47" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>33</v>
+        <v>29.6</v>
       </c>
       <c r="F47" t="n">
-        <v>5.5</v>
+        <v>4.933333333333334</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1719,19 +1719,19 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C48" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E48" t="n">
-        <v>29.5</v>
+        <v>28.5</v>
       </c>
       <c r="F48" t="n">
-        <v>4.916666666666667</v>
+        <v>4.75</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1746,19 +1746,19 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D49" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E49" t="n">
-        <v>30.6</v>
+        <v>33.8</v>
       </c>
       <c r="F49" t="n">
-        <v>5.1</v>
+        <v>5.633333333333334</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1773,19 +1773,19 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E50" t="n">
-        <v>33.9</v>
+        <v>26.2</v>
       </c>
       <c r="F50" t="n">
-        <v>5.65</v>
+        <v>4.366666666666666</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -1800,19 +1800,19 @@
         </is>
       </c>
       <c r="B51" t="n">
+        <v>7</v>
+      </c>
+      <c r="C51" t="n">
         <v>3</v>
       </c>
-      <c r="C51" t="n">
-        <v>7</v>
-      </c>
       <c r="D51" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E51" t="n">
-        <v>28.4</v>
+        <v>32.2</v>
       </c>
       <c r="F51" t="n">
-        <v>4.733333333333333</v>
+        <v>5.366666666666666</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -1836,10 +1836,10 @@
         <v>20</v>
       </c>
       <c r="E52" t="n">
-        <v>30</v>
+        <v>29.3</v>
       </c>
       <c r="F52" t="n">
-        <v>5</v>
+        <v>4.883333333333334</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -1863,10 +1863,10 @@
         <v>30</v>
       </c>
       <c r="E53" t="n">
-        <v>27.3</v>
+        <v>29.2</v>
       </c>
       <c r="F53" t="n">
-        <v>4.55</v>
+        <v>4.866666666666666</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -1881,19 +1881,19 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D54" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>31.1</v>
+        <v>29.6</v>
       </c>
       <c r="F54" t="n">
-        <v>5.183333333333334</v>
+        <v>4.933333333333334</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E55" t="n">
-        <v>32.6</v>
+        <v>26.8</v>
       </c>
       <c r="F55" t="n">
-        <v>5.433333333333334</v>
+        <v>4.466666666666667</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -1935,19 +1935,19 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D56" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>30.6</v>
+        <v>28.2</v>
       </c>
       <c r="F56" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -1962,19 +1962,19 @@
         </is>
       </c>
       <c r="B57" t="n">
+        <v>4</v>
+      </c>
+      <c r="C57" t="n">
         <v>6</v>
       </c>
-      <c r="C57" t="n">
-        <v>4</v>
-      </c>
       <c r="D57" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E57" t="n">
-        <v>30.7</v>
+        <v>29.7</v>
       </c>
       <c r="F57" t="n">
-        <v>5.116666666666666</v>
+        <v>4.95</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -1989,19 +1989,19 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C58" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E58" t="n">
-        <v>30.7</v>
+        <v>32.2</v>
       </c>
       <c r="F58" t="n">
-        <v>5.116666666666666</v>
+        <v>5.366666666666666</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2016,19 +2016,19 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E59" t="n">
-        <v>30.1</v>
+        <v>30.4</v>
       </c>
       <c r="F59" t="n">
-        <v>5.016666666666667</v>
+        <v>5.066666666666666</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2043,19 +2043,19 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E60" t="n">
-        <v>32.5</v>
+        <v>27.2</v>
       </c>
       <c r="F60" t="n">
-        <v>5.416666666666667</v>
+        <v>4.533333333333333</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2070,19 +2070,19 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D61" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E61" t="n">
-        <v>32.2</v>
+        <v>29.9</v>
       </c>
       <c r="F61" t="n">
-        <v>5.366666666666666</v>
+        <v>4.983333333333333</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2097,19 +2097,19 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C62" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E62" t="n">
-        <v>29.2</v>
+        <v>30.4</v>
       </c>
       <c r="F62" t="n">
-        <v>4.866666666666666</v>
+        <v>5.066666666666666</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2124,19 +2124,19 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D63" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E63" t="n">
-        <v>30.5</v>
+        <v>29.4</v>
       </c>
       <c r="F63" t="n">
-        <v>5.083333333333333</v>
+        <v>4.9</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2160,10 +2160,10 @@
         <v>30</v>
       </c>
       <c r="E64" t="n">
-        <v>26.6</v>
+        <v>27.8</v>
       </c>
       <c r="F64" t="n">
-        <v>4.433333333333334</v>
+        <v>4.633333333333334</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2178,19 +2178,19 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D65" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>30.4</v>
+        <v>30.9</v>
       </c>
       <c r="F65" t="n">
-        <v>5.066666666666666</v>
+        <v>5.15</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2205,19 +2205,19 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>28.5</v>
+        <v>30.4</v>
       </c>
       <c r="F66" t="n">
-        <v>4.75</v>
+        <v>5.066666666666666</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2232,19 +2232,19 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D67" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E67" t="n">
-        <v>31.8</v>
+        <v>31</v>
       </c>
       <c r="F67" t="n">
-        <v>5.3</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2259,19 +2259,19 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D68" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E68" t="n">
-        <v>31.1</v>
+        <v>28.2</v>
       </c>
       <c r="F68" t="n">
-        <v>5.183333333333334</v>
+        <v>4.7</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2295,10 +2295,10 @@
         <v>20</v>
       </c>
       <c r="E69" t="n">
-        <v>30.3</v>
+        <v>30.1</v>
       </c>
       <c r="F69" t="n">
-        <v>5.05</v>
+        <v>5.016666666666667</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2313,19 +2313,19 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D70" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E70" t="n">
-        <v>28.4</v>
+        <v>31.8</v>
       </c>
       <c r="F70" t="n">
-        <v>4.733333333333333</v>
+        <v>5.3</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2340,19 +2340,19 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D71" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E71" t="n">
-        <v>27.4</v>
+        <v>31</v>
       </c>
       <c r="F71" t="n">
-        <v>4.566666666666666</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2367,19 +2367,19 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>33.4</v>
+        <v>31.8</v>
       </c>
       <c r="F72" t="n">
-        <v>5.566666666666666</v>
+        <v>5.3</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2394,19 +2394,19 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D73" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>34.2</v>
+        <v>30.3</v>
       </c>
       <c r="F73" t="n">
-        <v>5.7</v>
+        <v>5.05</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2421,19 +2421,19 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C74" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D74" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E74" t="n">
-        <v>32</v>
+        <v>29.2</v>
       </c>
       <c r="F74" t="n">
-        <v>5.333333333333333</v>
+        <v>4.866666666666666</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2448,19 +2448,19 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D75" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E75" t="n">
-        <v>30.7</v>
+        <v>31.8</v>
       </c>
       <c r="F75" t="n">
-        <v>5.116666666666666</v>
+        <v>5.3</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2484,10 +2484,10 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>33.6</v>
+        <v>31</v>
       </c>
       <c r="F76" t="n">
-        <v>5.6</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2502,19 +2502,19 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C77" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E77" t="n">
-        <v>28.1</v>
+        <v>29</v>
       </c>
       <c r="F77" t="n">
-        <v>4.683333333333334</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2529,19 +2529,19 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E78" t="n">
-        <v>32.2</v>
+        <v>30.8</v>
       </c>
       <c r="F78" t="n">
-        <v>5.366666666666666</v>
+        <v>5.133333333333334</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2556,19 +2556,19 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C79" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E79" t="n">
-        <v>27.1</v>
+        <v>29.9</v>
       </c>
       <c r="F79" t="n">
-        <v>4.516666666666667</v>
+        <v>4.983333333333333</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2583,19 +2583,19 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C80" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D80" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E80" t="n">
-        <v>29.6</v>
+        <v>31.8</v>
       </c>
       <c r="F80" t="n">
-        <v>4.933333333333334</v>
+        <v>5.3</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2610,13 +2610,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C81" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E81" t="n">
         <v>28.3</v>
@@ -2646,10 +2646,10 @@
         <v>20</v>
       </c>
       <c r="E82" t="n">
-        <v>30.5</v>
+        <v>29.3</v>
       </c>
       <c r="F82" t="n">
-        <v>5.083333333333333</v>
+        <v>4.883333333333334</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C83" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E83" t="n">
-        <v>29.7</v>
+        <v>31.9</v>
       </c>
       <c r="F83" t="n">
-        <v>4.95</v>
+        <v>5.316666666666666</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -2700,10 +2700,10 @@
         <v>20</v>
       </c>
       <c r="E84" t="n">
-        <v>32.4</v>
+        <v>29.3</v>
       </c>
       <c r="F84" t="n">
-        <v>5.4</v>
+        <v>4.883333333333334</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -2718,19 +2718,19 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C85" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D85" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E85" t="n">
-        <v>26.8</v>
+        <v>30.7</v>
       </c>
       <c r="F85" t="n">
-        <v>4.466666666666667</v>
+        <v>5.116666666666666</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -2745,13 +2745,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E86" t="n">
         <v>28.9</v>
@@ -2772,19 +2772,19 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D87" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E87" t="n">
-        <v>32.9</v>
+        <v>30.6</v>
       </c>
       <c r="F87" t="n">
-        <v>5.483333333333333</v>
+        <v>5.1</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -2799,19 +2799,19 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C88" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E88" t="n">
-        <v>29.6</v>
+        <v>28.8</v>
       </c>
       <c r="F88" t="n">
-        <v>4.933333333333334</v>
+        <v>4.8</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -2835,10 +2835,10 @@
         <v>20</v>
       </c>
       <c r="E89" t="n">
-        <v>32.2</v>
+        <v>28.9</v>
       </c>
       <c r="F89" t="n">
-        <v>5.366666666666666</v>
+        <v>4.816666666666666</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -2853,19 +2853,19 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C90" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E90" t="n">
-        <v>31.2</v>
+        <v>33.5</v>
       </c>
       <c r="F90" t="n">
-        <v>5.2</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -2880,19 +2880,19 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C91" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D91" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E91" t="n">
-        <v>29.6</v>
+        <v>26</v>
       </c>
       <c r="F91" t="n">
-        <v>4.933333333333334</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -2907,19 +2907,19 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C92" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E92" t="n">
-        <v>33</v>
+        <v>31.4</v>
       </c>
       <c r="F92" t="n">
-        <v>5.5</v>
+        <v>5.233333333333333</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -2934,19 +2934,19 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C93" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E93" t="n">
-        <v>30.1</v>
+        <v>28</v>
       </c>
       <c r="F93" t="n">
-        <v>5.016666666666667</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -2970,10 +2970,10 @@
         <v>20</v>
       </c>
       <c r="E94" t="n">
-        <v>33.1</v>
+        <v>31.7</v>
       </c>
       <c r="F94" t="n">
-        <v>5.516666666666667</v>
+        <v>5.283333333333333</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -2988,19 +2988,19 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C95" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E95" t="n">
-        <v>30.4</v>
+        <v>28.2</v>
       </c>
       <c r="F95" t="n">
-        <v>5.066666666666666</v>
+        <v>4.7</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3015,19 +3015,19 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C96" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E96" t="n">
-        <v>30.6</v>
+        <v>32</v>
       </c>
       <c r="F96" t="n">
-        <v>5.1</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -3042,19 +3042,19 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C97" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D97" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E97" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="F97" t="n">
-        <v>4.766666666666667</v>
+        <v>4.783333333333333</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3078,10 +3078,10 @@
         <v>20</v>
       </c>
       <c r="E98" t="n">
-        <v>30.5</v>
+        <v>27.6</v>
       </c>
       <c r="F98" t="n">
-        <v>5.083333333333333</v>
+        <v>4.6</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3096,19 +3096,19 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D99" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E99" t="n">
-        <v>30.6</v>
+        <v>29.7</v>
       </c>
       <c r="F99" t="n">
-        <v>5.1</v>
+        <v>4.95</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -3123,19 +3123,19 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C100" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E100" t="n">
-        <v>31.2</v>
+        <v>27.3</v>
       </c>
       <c r="F100" t="n">
-        <v>5.2</v>
+        <v>4.55</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -3150,19 +3150,19 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C101" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E101" t="n">
-        <v>31.1</v>
+        <v>32.5</v>
       </c>
       <c r="F101" t="n">
-        <v>5.183333333333334</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -3177,19 +3177,19 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C102" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D102" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E102" t="n">
-        <v>18.3</v>
+        <v>21.2</v>
       </c>
       <c r="F102" t="n">
-        <v>3.05</v>
+        <v>3.533333333333333</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -3204,19 +3204,19 @@
         </is>
       </c>
       <c r="B103" t="n">
+        <v>6</v>
+      </c>
+      <c r="C103" t="n">
         <v>4</v>
       </c>
-      <c r="C103" t="n">
-        <v>6</v>
-      </c>
       <c r="D103" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E103" t="n">
-        <v>17.7</v>
+        <v>21.8</v>
       </c>
       <c r="F103" t="n">
-        <v>2.95</v>
+        <v>3.633333333333333</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -3231,23 +3231,23 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C104" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D104" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E104" t="n">
-        <v>23.7</v>
+        <v>19.2</v>
       </c>
       <c r="F104" t="n">
-        <v>3.95</v>
+        <v>3.2</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -3258,19 +3258,19 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C105" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D105" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E105" t="n">
-        <v>20.8</v>
+        <v>22.2</v>
       </c>
       <c r="F105" t="n">
-        <v>3.466666666666667</v>
+        <v>3.7</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -3285,19 +3285,19 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C106" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D106" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E106" t="n">
-        <v>17.5</v>
+        <v>20.9</v>
       </c>
       <c r="F106" t="n">
-        <v>2.916666666666667</v>
+        <v>3.483333333333333</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -3321,10 +3321,10 @@
         <v>60</v>
       </c>
       <c r="E107" t="n">
-        <v>21.4</v>
+        <v>17.8</v>
       </c>
       <c r="F107" t="n">
-        <v>3.566666666666667</v>
+        <v>2.966666666666667</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -3339,19 +3339,19 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C108" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D108" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E108" t="n">
-        <v>23.7</v>
+        <v>21.1</v>
       </c>
       <c r="F108" t="n">
-        <v>3.95</v>
+        <v>3.516666666666667</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -3366,19 +3366,19 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C109" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D109" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E109" t="n">
-        <v>18.6</v>
+        <v>20.6</v>
       </c>
       <c r="F109" t="n">
-        <v>3.1</v>
+        <v>3.433333333333333</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -3393,19 +3393,19 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C110" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D110" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E110" t="n">
-        <v>22.4</v>
+        <v>22</v>
       </c>
       <c r="F110" t="n">
-        <v>3.733333333333333</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -3420,23 +3420,23 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C111" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D111" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E111" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="F111" t="n">
-        <v>3.3</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -3447,19 +3447,19 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C112" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D112" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E112" t="n">
-        <v>22.5</v>
+        <v>18.6</v>
       </c>
       <c r="F112" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -3474,19 +3474,19 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C113" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D113" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E113" t="n">
-        <v>17.9</v>
+        <v>21.5</v>
       </c>
       <c r="F113" t="n">
-        <v>2.983333333333333</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -3501,19 +3501,19 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C114" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D114" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E114" t="n">
-        <v>21.5</v>
+        <v>20.5</v>
       </c>
       <c r="F114" t="n">
-        <v>3.583333333333333</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -3528,19 +3528,19 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C115" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D115" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E115" t="n">
-        <v>19.4</v>
+        <v>22.4</v>
       </c>
       <c r="F115" t="n">
-        <v>3.233333333333333</v>
+        <v>3.733333333333333</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -3555,23 +3555,23 @@
         </is>
       </c>
       <c r="B116" t="n">
+        <v>3</v>
+      </c>
+      <c r="C116" t="n">
         <v>7</v>
       </c>
-      <c r="C116" t="n">
-        <v>3</v>
-      </c>
       <c r="D116" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E116" t="n">
-        <v>19</v>
+        <v>21.2</v>
       </c>
       <c r="F116" t="n">
-        <v>3.166666666666667</v>
+        <v>3.533333333333333</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -3582,19 +3582,19 @@
         </is>
       </c>
       <c r="B117" t="n">
+        <v>8</v>
+      </c>
+      <c r="C117" t="n">
         <v>2</v>
       </c>
-      <c r="C117" t="n">
-        <v>8</v>
-      </c>
       <c r="D117" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E117" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="F117" t="n">
-        <v>3.25</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -3609,23 +3609,23 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C118" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D118" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E118" t="n">
-        <v>19.4</v>
+        <v>18.8</v>
       </c>
       <c r="F118" t="n">
-        <v>3.233333333333333</v>
+        <v>3.133333333333333</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -3636,23 +3636,23 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D119" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E119" t="n">
-        <v>16.9</v>
+        <v>21.8</v>
       </c>
       <c r="F119" t="n">
-        <v>2.816666666666667</v>
+        <v>3.633333333333333</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -3663,13 +3663,13 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D120" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E120" t="n">
         <v>20.2</v>
@@ -3690,19 +3690,19 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C121" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D121" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E121" t="n">
-        <v>21.3</v>
+        <v>19</v>
       </c>
       <c r="F121" t="n">
-        <v>3.55</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -3717,19 +3717,19 @@
         </is>
       </c>
       <c r="B122" t="n">
+        <v>6</v>
+      </c>
+      <c r="C122" t="n">
         <v>4</v>
       </c>
-      <c r="C122" t="n">
-        <v>6</v>
-      </c>
       <c r="D122" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E122" t="n">
-        <v>20.4</v>
+        <v>22.4</v>
       </c>
       <c r="F122" t="n">
-        <v>3.4</v>
+        <v>3.733333333333333</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -3744,23 +3744,23 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C123" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D123" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E123" t="n">
-        <v>20.6</v>
+        <v>19.8</v>
       </c>
       <c r="F123" t="n">
-        <v>3.433333333333333</v>
+        <v>3.3</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -3771,19 +3771,19 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C124" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D124" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E124" t="n">
-        <v>18.3</v>
+        <v>22.2</v>
       </c>
       <c r="F124" t="n">
-        <v>3.05</v>
+        <v>3.7</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -3807,10 +3807,10 @@
         <v>40</v>
       </c>
       <c r="E125" t="n">
-        <v>15.8</v>
+        <v>18</v>
       </c>
       <c r="F125" t="n">
-        <v>2.633333333333333</v>
+        <v>3</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -3825,23 +3825,23 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C126" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D126" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E126" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="F126" t="n">
-        <v>3.233333333333333</v>
+        <v>3.216666666666667</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -3852,19 +3852,19 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C127" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D127" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E127" t="n">
-        <v>18.7</v>
+        <v>21.2</v>
       </c>
       <c r="F127" t="n">
-        <v>3.116666666666667</v>
+        <v>3.533333333333333</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -3879,19 +3879,19 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C128" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D128" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E128" t="n">
-        <v>22.1</v>
+        <v>23.4</v>
       </c>
       <c r="F128" t="n">
-        <v>3.683333333333333</v>
+        <v>3.9</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -3906,19 +3906,19 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C129" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D129" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E129" t="n">
-        <v>18.2</v>
+        <v>22.1</v>
       </c>
       <c r="F129" t="n">
-        <v>3.033333333333333</v>
+        <v>3.683333333333333</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -3933,19 +3933,19 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C130" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D130" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E130" t="n">
-        <v>17.9</v>
+        <v>21.1</v>
       </c>
       <c r="F130" t="n">
-        <v>2.983333333333333</v>
+        <v>3.516666666666667</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -3960,19 +3960,19 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C131" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D131" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E131" t="n">
-        <v>20.1</v>
+        <v>21.2</v>
       </c>
       <c r="F131" t="n">
-        <v>3.35</v>
+        <v>3.533333333333333</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -3987,23 +3987,23 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C132" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D132" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E132" t="n">
-        <v>20.7</v>
+        <v>19.6</v>
       </c>
       <c r="F132" t="n">
-        <v>3.45</v>
+        <v>3.266666666666667</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -4023,10 +4023,10 @@
         <v>70</v>
       </c>
       <c r="E133" t="n">
-        <v>20.1</v>
+        <v>22.7</v>
       </c>
       <c r="F133" t="n">
-        <v>3.35</v>
+        <v>3.783333333333333</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -4041,19 +4041,19 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C134" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D134" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E134" t="n">
-        <v>21.6</v>
+        <v>20</v>
       </c>
       <c r="F134" t="n">
-        <v>3.6</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -4068,19 +4068,19 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C135" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D135" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E135" t="n">
-        <v>20</v>
+        <v>18.7</v>
       </c>
       <c r="F135" t="n">
-        <v>3.333333333333333</v>
+        <v>3.116666666666667</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -4095,19 +4095,19 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C136" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E136" t="n">
-        <v>19.6</v>
+        <v>20.5</v>
       </c>
       <c r="F136" t="n">
-        <v>3.266666666666667</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -4122,19 +4122,19 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C137" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D137" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E137" t="n">
-        <v>22.1</v>
+        <v>20.6</v>
       </c>
       <c r="F137" t="n">
-        <v>3.683333333333333</v>
+        <v>3.433333333333333</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -4149,19 +4149,19 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C138" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D138" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E138" t="n">
-        <v>21.2</v>
+        <v>24.7</v>
       </c>
       <c r="F138" t="n">
-        <v>3.533333333333333</v>
+        <v>4.116666666666666</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -4185,10 +4185,10 @@
         <v>50</v>
       </c>
       <c r="E139" t="n">
-        <v>21</v>
+        <v>17.8</v>
       </c>
       <c r="F139" t="n">
-        <v>3.5</v>
+        <v>2.966666666666667</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -4203,23 +4203,23 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C140" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D140" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E140" t="n">
-        <v>19.9</v>
+        <v>19</v>
       </c>
       <c r="F140" t="n">
-        <v>3.316666666666667</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -4230,19 +4230,19 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C141" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D141" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E141" t="n">
-        <v>21.8</v>
+        <v>18.7</v>
       </c>
       <c r="F141" t="n">
-        <v>3.633333333333333</v>
+        <v>3.116666666666667</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -4257,19 +4257,19 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C142" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D142" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E142" t="n">
-        <v>18.6</v>
+        <v>20.5</v>
       </c>
       <c r="F142" t="n">
-        <v>3.1</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -4284,19 +4284,19 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C143" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D143" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E143" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="F143" t="n">
-        <v>3.583333333333333</v>
+        <v>3.65</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -4311,19 +4311,19 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C144" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D144" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E144" t="n">
-        <v>18.1</v>
+        <v>22.5</v>
       </c>
       <c r="F144" t="n">
-        <v>3.016666666666667</v>
+        <v>3.75</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -4347,10 +4347,10 @@
         <v>50</v>
       </c>
       <c r="E145" t="n">
-        <v>16</v>
+        <v>22.7</v>
       </c>
       <c r="F145" t="n">
-        <v>2.666666666666667</v>
+        <v>3.783333333333333</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -4365,19 +4365,19 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C146" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D146" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E146" t="n">
-        <v>16.3</v>
+        <v>20.5</v>
       </c>
       <c r="F146" t="n">
-        <v>2.716666666666667</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -4401,10 +4401,10 @@
         <v>50</v>
       </c>
       <c r="E147" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="F147" t="n">
-        <v>3.583333333333333</v>
+        <v>3.65</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -4419,23 +4419,23 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C148" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D148" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E148" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="F148" t="n">
-        <v>3.25</v>
+        <v>3.233333333333333</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -4446,13 +4446,13 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C149" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D149" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E149" t="n">
         <v>21.5</v>
@@ -4473,19 +4473,19 @@
         </is>
       </c>
       <c r="B150" t="n">
+        <v>6</v>
+      </c>
+      <c r="C150" t="n">
         <v>4</v>
       </c>
-      <c r="C150" t="n">
-        <v>6</v>
-      </c>
       <c r="D150" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E150" t="n">
-        <v>24.2</v>
+        <v>20.4</v>
       </c>
       <c r="F150" t="n">
-        <v>4.033333333333333</v>
+        <v>3.4</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -4500,19 +4500,19 @@
         </is>
       </c>
       <c r="B151" t="n">
+        <v>6</v>
+      </c>
+      <c r="C151" t="n">
         <v>4</v>
       </c>
-      <c r="C151" t="n">
-        <v>6</v>
-      </c>
       <c r="D151" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E151" t="n">
-        <v>20.1</v>
+        <v>20.9</v>
       </c>
       <c r="F151" t="n">
-        <v>3.35</v>
+        <v>3.483333333333333</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -4527,19 +4527,19 @@
         </is>
       </c>
       <c r="B152" t="n">
+        <v>6</v>
+      </c>
+      <c r="C152" t="n">
         <v>4</v>
       </c>
-      <c r="C152" t="n">
-        <v>6</v>
-      </c>
       <c r="D152" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E152" t="n">
-        <v>17.1</v>
+        <v>21.3</v>
       </c>
       <c r="F152" t="n">
-        <v>2.85</v>
+        <v>3.55</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -4554,19 +4554,19 @@
         </is>
       </c>
       <c r="B153" t="n">
+        <v>4</v>
+      </c>
+      <c r="C153" t="n">
         <v>6</v>
       </c>
-      <c r="C153" t="n">
-        <v>4</v>
-      </c>
       <c r="D153" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E153" t="n">
-        <v>22.3</v>
+        <v>20.1</v>
       </c>
       <c r="F153" t="n">
-        <v>3.716666666666667</v>
+        <v>3.35</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -4581,23 +4581,23 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C154" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D154" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E154" t="n">
-        <v>18.2</v>
+        <v>19.3</v>
       </c>
       <c r="F154" t="n">
-        <v>3.033333333333333</v>
+        <v>3.216666666666667</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -4608,19 +4608,19 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C155" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E155" t="n">
-        <v>18.5</v>
+        <v>18.9</v>
       </c>
       <c r="F155" t="n">
-        <v>3.083333333333333</v>
+        <v>3.15</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -4635,23 +4635,23 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C156" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D156" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E156" t="n">
-        <v>17.7</v>
+        <v>16.8</v>
       </c>
       <c r="F156" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -4662,19 +4662,19 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C157" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D157" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E157" t="n">
-        <v>18.8</v>
+        <v>20.6</v>
       </c>
       <c r="F157" t="n">
-        <v>3.133333333333333</v>
+        <v>3.433333333333333</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -4689,19 +4689,19 @@
         </is>
       </c>
       <c r="B158" t="n">
+        <v>4</v>
+      </c>
+      <c r="C158" t="n">
         <v>6</v>
       </c>
-      <c r="C158" t="n">
-        <v>4</v>
-      </c>
       <c r="D158" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E158" t="n">
-        <v>18.7</v>
+        <v>17.9</v>
       </c>
       <c r="F158" t="n">
-        <v>3.116666666666667</v>
+        <v>2.983333333333333</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -4716,19 +4716,19 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C159" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E159" t="n">
-        <v>21.6</v>
+        <v>18.2</v>
       </c>
       <c r="F159" t="n">
-        <v>3.6</v>
+        <v>3.033333333333333</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -4743,23 +4743,23 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C160" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D160" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E160" t="n">
-        <v>19.7</v>
+        <v>19.1</v>
       </c>
       <c r="F160" t="n">
-        <v>3.283333333333333</v>
+        <v>3.183333333333333</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -4770,19 +4770,19 @@
         </is>
       </c>
       <c r="B161" t="n">
+        <v>6</v>
+      </c>
+      <c r="C161" t="n">
         <v>4</v>
       </c>
-      <c r="C161" t="n">
-        <v>6</v>
-      </c>
       <c r="D161" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E161" t="n">
-        <v>19.3</v>
+        <v>21.6</v>
       </c>
       <c r="F161" t="n">
-        <v>3.216666666666667</v>
+        <v>3.6</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -4797,19 +4797,19 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C162" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D162" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E162" t="n">
-        <v>19.3</v>
+        <v>17.9</v>
       </c>
       <c r="F162" t="n">
-        <v>3.216666666666667</v>
+        <v>2.983333333333333</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -4824,19 +4824,19 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C163" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D163" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E163" t="n">
-        <v>19.4</v>
+        <v>20.4</v>
       </c>
       <c r="F163" t="n">
-        <v>3.233333333333333</v>
+        <v>3.4</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -4851,19 +4851,19 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C164" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D164" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E164" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="F164" t="n">
-        <v>3.416666666666667</v>
+        <v>3.466666666666667</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -4878,19 +4878,19 @@
         </is>
       </c>
       <c r="B165" t="n">
+        <v>4</v>
+      </c>
+      <c r="C165" t="n">
         <v>6</v>
       </c>
-      <c r="C165" t="n">
-        <v>4</v>
-      </c>
       <c r="D165" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E165" t="n">
-        <v>17.6</v>
+        <v>17.9</v>
       </c>
       <c r="F165" t="n">
-        <v>2.933333333333333</v>
+        <v>2.983333333333333</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -4905,19 +4905,19 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C166" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D166" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E166" t="n">
-        <v>20</v>
+        <v>19.6</v>
       </c>
       <c r="F166" t="n">
-        <v>3.333333333333333</v>
+        <v>3.266666666666667</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -4932,19 +4932,19 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C167" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D167" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E167" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="F167" t="n">
-        <v>3.466666666666667</v>
+        <v>3.4</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -4959,19 +4959,19 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C168" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D168" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E168" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="F168" t="n">
-        <v>3.333333333333333</v>
+        <v>3.366666666666667</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -4995,10 +4995,10 @@
         <v>40</v>
       </c>
       <c r="E169" t="n">
-        <v>18.5</v>
+        <v>19.4</v>
       </c>
       <c r="F169" t="n">
-        <v>3.083333333333333</v>
+        <v>3.233333333333333</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -5013,19 +5013,19 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C170" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D170" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E170" t="n">
-        <v>22.4</v>
+        <v>21.2</v>
       </c>
       <c r="F170" t="n">
-        <v>3.733333333333333</v>
+        <v>3.533333333333333</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -5040,19 +5040,19 @@
         </is>
       </c>
       <c r="B171" t="n">
+        <v>4</v>
+      </c>
+      <c r="C171" t="n">
+        <v>6</v>
+      </c>
+      <c r="D171" t="n">
+        <v>40</v>
+      </c>
+      <c r="E171" t="n">
+        <v>18</v>
+      </c>
+      <c r="F171" t="n">
         <v>3</v>
-      </c>
-      <c r="C171" t="n">
-        <v>7</v>
-      </c>
-      <c r="D171" t="n">
-        <v>30</v>
-      </c>
-      <c r="E171" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="F171" t="n">
-        <v>2.95</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -5067,19 +5067,19 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C172" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D172" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E172" t="n">
-        <v>19.8</v>
+        <v>18.1</v>
       </c>
       <c r="F172" t="n">
-        <v>3.3</v>
+        <v>3.016666666666667</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -5103,10 +5103,10 @@
         <v>40</v>
       </c>
       <c r="E173" t="n">
-        <v>23.8</v>
+        <v>22.9</v>
       </c>
       <c r="F173" t="n">
-        <v>3.966666666666667</v>
+        <v>3.816666666666667</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -5121,23 +5121,23 @@
         </is>
       </c>
       <c r="B174" t="n">
+        <v>7</v>
+      </c>
+      <c r="C174" t="n">
         <v>3</v>
       </c>
-      <c r="C174" t="n">
-        <v>7</v>
-      </c>
       <c r="D174" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E174" t="n">
-        <v>17.3</v>
+        <v>18.6</v>
       </c>
       <c r="F174" t="n">
-        <v>2.883333333333333</v>
+        <v>3.1</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -5148,19 +5148,19 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C175" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D175" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E175" t="n">
-        <v>19.1</v>
+        <v>19.8</v>
       </c>
       <c r="F175" t="n">
-        <v>3.183333333333333</v>
+        <v>3.3</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -5175,23 +5175,23 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C176" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D176" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E176" t="n">
-        <v>20.3</v>
+        <v>19</v>
       </c>
       <c r="F176" t="n">
-        <v>3.383333333333333</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -5202,19 +5202,19 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C177" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D177" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E177" t="n">
-        <v>21.2</v>
+        <v>19</v>
       </c>
       <c r="F177" t="n">
-        <v>3.533333333333333</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -5229,19 +5229,19 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C178" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D178" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E178" t="n">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
       <c r="F178" t="n">
-        <v>3.416666666666667</v>
+        <v>3.483333333333333</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -5256,19 +5256,19 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C179" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D179" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E179" t="n">
-        <v>20.3</v>
+        <v>21</v>
       </c>
       <c r="F179" t="n">
-        <v>3.383333333333333</v>
+        <v>3.5</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -5283,19 +5283,19 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C180" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D180" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E180" t="n">
-        <v>23.5</v>
+        <v>20.1</v>
       </c>
       <c r="F180" t="n">
-        <v>3.916666666666667</v>
+        <v>3.35</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -5310,19 +5310,19 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C181" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D181" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E181" t="n">
-        <v>23.5</v>
+        <v>19.5</v>
       </c>
       <c r="F181" t="n">
-        <v>3.916666666666667</v>
+        <v>3.25</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -5346,10 +5346,10 @@
         <v>40</v>
       </c>
       <c r="E182" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="F182" t="n">
-        <v>3.316666666666667</v>
+        <v>3.283333333333333</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -5364,19 +5364,19 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C183" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D183" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E183" t="n">
-        <v>20.2</v>
+        <v>22.6</v>
       </c>
       <c r="F183" t="n">
-        <v>3.366666666666667</v>
+        <v>3.766666666666667</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -5391,19 +5391,19 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C184" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D184" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E184" t="n">
-        <v>21.1</v>
+        <v>22.3</v>
       </c>
       <c r="F184" t="n">
-        <v>3.516666666666667</v>
+        <v>3.716666666666667</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -5418,19 +5418,19 @@
         </is>
       </c>
       <c r="B185" t="n">
+        <v>4</v>
+      </c>
+      <c r="C185" t="n">
         <v>6</v>
       </c>
-      <c r="C185" t="n">
-        <v>4</v>
-      </c>
       <c r="D185" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E185" t="n">
-        <v>20.9</v>
+        <v>21.5</v>
       </c>
       <c r="F185" t="n">
-        <v>3.483333333333333</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -5445,19 +5445,19 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C186" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D186" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E186" t="n">
-        <v>17.9</v>
+        <v>22.1</v>
       </c>
       <c r="F186" t="n">
-        <v>2.983333333333333</v>
+        <v>3.683333333333333</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -5472,19 +5472,19 @@
         </is>
       </c>
       <c r="B187" t="n">
+        <v>6</v>
+      </c>
+      <c r="C187" t="n">
         <v>4</v>
       </c>
-      <c r="C187" t="n">
-        <v>6</v>
-      </c>
       <c r="D187" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E187" t="n">
-        <v>18.9</v>
+        <v>16.5</v>
       </c>
       <c r="F187" t="n">
-        <v>3.15</v>
+        <v>2.75</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -5499,19 +5499,19 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C188" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D188" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E188" t="n">
-        <v>17.4</v>
+        <v>21.6</v>
       </c>
       <c r="F188" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -5526,19 +5526,19 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C189" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D189" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E189" t="n">
-        <v>17.6</v>
+        <v>20.3</v>
       </c>
       <c r="F189" t="n">
-        <v>2.933333333333333</v>
+        <v>3.383333333333333</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -5553,19 +5553,19 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C190" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D190" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E190" t="n">
-        <v>18.6</v>
+        <v>20.4</v>
       </c>
       <c r="F190" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -5580,19 +5580,19 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D191" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E191" t="n">
-        <v>19.2</v>
+        <v>18.7</v>
       </c>
       <c r="F191" t="n">
-        <v>3.2</v>
+        <v>3.116666666666667</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -5607,19 +5607,19 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C192" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D192" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E192" t="n">
-        <v>20.4</v>
+        <v>21</v>
       </c>
       <c r="F192" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -5634,23 +5634,23 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C193" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D193" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E193" t="n">
-        <v>19.6</v>
+        <v>20.3</v>
       </c>
       <c r="F193" t="n">
-        <v>3.266666666666667</v>
+        <v>3.383333333333333</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -5661,19 +5661,19 @@
         </is>
       </c>
       <c r="B194" t="n">
+        <v>4</v>
+      </c>
+      <c r="C194" t="n">
         <v>6</v>
       </c>
-      <c r="C194" t="n">
-        <v>4</v>
-      </c>
       <c r="D194" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E194" t="n">
-        <v>19.6</v>
+        <v>23.6</v>
       </c>
       <c r="F194" t="n">
-        <v>3.266666666666667</v>
+        <v>3.933333333333333</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -5688,19 +5688,19 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C195" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D195" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E195" t="n">
-        <v>19.8</v>
+        <v>20.7</v>
       </c>
       <c r="F195" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -5715,19 +5715,19 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C196" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D196" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E196" t="n">
-        <v>20.2</v>
+        <v>20.6</v>
       </c>
       <c r="F196" t="n">
-        <v>3.366666666666667</v>
+        <v>3.433333333333333</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -5742,23 +5742,23 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C197" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D197" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E197" t="n">
-        <v>19.7</v>
+        <v>17.4</v>
       </c>
       <c r="F197" t="n">
-        <v>3.283333333333333</v>
+        <v>2.9</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -5769,19 +5769,19 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C198" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D198" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E198" t="n">
-        <v>19.9</v>
+        <v>16.5</v>
       </c>
       <c r="F198" t="n">
-        <v>3.316666666666667</v>
+        <v>2.75</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -5796,23 +5796,23 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C199" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D199" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E199" t="n">
-        <v>17.7</v>
+        <v>20.8</v>
       </c>
       <c r="F199" t="n">
-        <v>2.95</v>
+        <v>3.466666666666667</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -5823,19 +5823,19 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C200" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D200" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E200" t="n">
-        <v>23.3</v>
+        <v>18.3</v>
       </c>
       <c r="F200" t="n">
-        <v>3.883333333333333</v>
+        <v>3.05</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -5850,19 +5850,19 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C201" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D201" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E201" t="n">
-        <v>17.7</v>
+        <v>19.1</v>
       </c>
       <c r="F201" t="n">
-        <v>2.95</v>
+        <v>3.183333333333333</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -5877,19 +5877,19 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C202" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D202" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E202" t="n">
-        <v>22.4</v>
+        <v>14.8</v>
       </c>
       <c r="F202" t="n">
-        <v>3.733333333333333</v>
+        <v>2.466666666666667</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -5904,19 +5904,19 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D203" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E203" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="F203" t="n">
-        <v>3.466666666666667</v>
+        <v>3.45</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -5931,23 +5931,23 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D204" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E204" t="n">
-        <v>20.9</v>
+        <v>17.5</v>
       </c>
       <c r="F204" t="n">
-        <v>3.483333333333333</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -5958,19 +5958,19 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C205" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D205" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E205" t="n">
-        <v>22.1</v>
+        <v>21.6</v>
       </c>
       <c r="F205" t="n">
-        <v>3.683333333333333</v>
+        <v>3.6</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -5985,19 +5985,19 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C206" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D206" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E206" t="n">
-        <v>19</v>
+        <v>18.4</v>
       </c>
       <c r="F206" t="n">
-        <v>3.166666666666667</v>
+        <v>3.066666666666667</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -6012,19 +6012,19 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D207" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E207" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="F207" t="n">
-        <v>3.25</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -6039,23 +6039,23 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C208" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D208" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E208" t="n">
-        <v>16.6</v>
+        <v>22.8</v>
       </c>
       <c r="F208" t="n">
-        <v>2.766666666666667</v>
+        <v>3.8</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -6066,19 +6066,19 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D209" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E209" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="F209" t="n">
-        <v>3.183333333333333</v>
+        <v>3.2</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -6093,23 +6093,23 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D210" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E210" t="n">
-        <v>22.3</v>
+        <v>17.9</v>
       </c>
       <c r="F210" t="n">
-        <v>3.716666666666667</v>
+        <v>2.983333333333333</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -6120,23 +6120,23 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D211" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E211" t="n">
-        <v>17.2</v>
+        <v>16.9</v>
       </c>
       <c r="F211" t="n">
-        <v>2.866666666666667</v>
+        <v>2.816666666666667</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -6156,10 +6156,10 @@
         <v>70</v>
       </c>
       <c r="E212" t="n">
-        <v>17.4</v>
+        <v>17.6</v>
       </c>
       <c r="F212" t="n">
-        <v>2.9</v>
+        <v>2.933333333333333</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -6174,23 +6174,23 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D213" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E213" t="n">
-        <v>23.2</v>
+        <v>17.8</v>
       </c>
       <c r="F213" t="n">
-        <v>3.866666666666667</v>
+        <v>2.966666666666667</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -6201,23 +6201,23 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D214" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E214" t="n">
-        <v>21.3</v>
+        <v>17.9</v>
       </c>
       <c r="F214" t="n">
-        <v>3.55</v>
+        <v>2.983333333333333</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -6228,23 +6228,23 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C215" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D215" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E215" t="n">
-        <v>19.6</v>
+        <v>21.8</v>
       </c>
       <c r="F215" t="n">
-        <v>3.266666666666667</v>
+        <v>3.633333333333333</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -6264,14 +6264,14 @@
         <v>90</v>
       </c>
       <c r="E216" t="n">
-        <v>19.2</v>
+        <v>23.2</v>
       </c>
       <c r="F216" t="n">
-        <v>3.2</v>
+        <v>3.866666666666667</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -6291,14 +6291,14 @@
         <v>90</v>
       </c>
       <c r="E217" t="n">
-        <v>18.3</v>
+        <v>20.4</v>
       </c>
       <c r="F217" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -6309,23 +6309,23 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C218" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D218" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E218" t="n">
-        <v>17.1</v>
+        <v>22.1</v>
       </c>
       <c r="F218" t="n">
-        <v>2.85</v>
+        <v>3.683333333333333</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -6336,19 +6336,19 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D219" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E219" t="n">
-        <v>22.1</v>
+        <v>23.8</v>
       </c>
       <c r="F219" t="n">
-        <v>3.683333333333333</v>
+        <v>3.966666666666667</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -6372,14 +6372,14 @@
         <v>90</v>
       </c>
       <c r="E220" t="n">
-        <v>18</v>
+        <v>22.1</v>
       </c>
       <c r="F220" t="n">
-        <v>3</v>
+        <v>3.683333333333333</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -6390,23 +6390,23 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C221" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D221" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E221" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="F221" t="n">
-        <v>2.916666666666667</v>
+        <v>2.966666666666667</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -6417,19 +6417,19 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C222" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D222" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E222" t="n">
-        <v>19.8</v>
+        <v>21.5</v>
       </c>
       <c r="F222" t="n">
-        <v>3.3</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -6444,19 +6444,19 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C223" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D223" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E223" t="n">
-        <v>21.6</v>
+        <v>22.3</v>
       </c>
       <c r="F223" t="n">
-        <v>3.6</v>
+        <v>3.716666666666667</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -6471,19 +6471,19 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D224" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E224" t="n">
-        <v>20.4</v>
+        <v>22</v>
       </c>
       <c r="F224" t="n">
-        <v>3.4</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -6498,23 +6498,23 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C225" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D225" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E225" t="n">
-        <v>19.9</v>
+        <v>21.5</v>
       </c>
       <c r="F225" t="n">
-        <v>3.316666666666667</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -6525,19 +6525,19 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D226" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E226" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="F226" t="n">
-        <v>3.25</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -6552,19 +6552,19 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D227" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E227" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="F227" t="n">
-        <v>3.316666666666667</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -6579,23 +6579,23 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C228" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D228" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E228" t="n">
-        <v>18</v>
+        <v>19.2</v>
       </c>
       <c r="F228" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -6606,23 +6606,23 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D229" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E229" t="n">
-        <v>22.1</v>
+        <v>19.8</v>
       </c>
       <c r="F229" t="n">
-        <v>3.683333333333333</v>
+        <v>3.3</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -6633,23 +6633,23 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D230" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E230" t="n">
-        <v>21</v>
+        <v>17.2</v>
       </c>
       <c r="F230" t="n">
-        <v>3.5</v>
+        <v>2.866666666666667</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -6660,19 +6660,19 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C231" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D231" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E231" t="n">
-        <v>16.4</v>
+        <v>18</v>
       </c>
       <c r="F231" t="n">
-        <v>2.733333333333333</v>
+        <v>3</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -6687,19 +6687,19 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C232" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D232" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E232" t="n">
-        <v>16.9</v>
+        <v>21.3</v>
       </c>
       <c r="F232" t="n">
-        <v>2.816666666666667</v>
+        <v>3.55</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -6714,23 +6714,23 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C233" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D233" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E233" t="n">
-        <v>16.7</v>
+        <v>21.5</v>
       </c>
       <c r="F233" t="n">
-        <v>2.783333333333333</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -6741,23 +6741,23 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D234" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E234" t="n">
-        <v>18.8</v>
+        <v>21.1</v>
       </c>
       <c r="F234" t="n">
-        <v>3.133333333333333</v>
+        <v>3.516666666666667</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -6777,14 +6777,14 @@
         <v>80</v>
       </c>
       <c r="E235" t="n">
-        <v>22.2</v>
+        <v>19.7</v>
       </c>
       <c r="F235" t="n">
-        <v>3.7</v>
+        <v>3.283333333333333</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -6795,19 +6795,19 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C236" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D236" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E236" t="n">
-        <v>20.4</v>
+        <v>21.1</v>
       </c>
       <c r="F236" t="n">
-        <v>3.4</v>
+        <v>3.516666666666667</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -6822,23 +6822,23 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D237" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E237" t="n">
-        <v>21.4</v>
+        <v>19.2</v>
       </c>
       <c r="F237" t="n">
-        <v>3.566666666666667</v>
+        <v>3.2</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -6858,14 +6858,14 @@
         <v>80</v>
       </c>
       <c r="E238" t="n">
-        <v>18.2</v>
+        <v>20.2</v>
       </c>
       <c r="F238" t="n">
-        <v>3.033333333333333</v>
+        <v>3.366666666666667</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -6876,19 +6876,19 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D239" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E239" t="n">
-        <v>19.5</v>
+        <v>17.3</v>
       </c>
       <c r="F239" t="n">
-        <v>3.25</v>
+        <v>2.883333333333333</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -6912,14 +6912,14 @@
         <v>90</v>
       </c>
       <c r="E240" t="n">
-        <v>21</v>
+        <v>19.2</v>
       </c>
       <c r="F240" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -6930,23 +6930,23 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D241" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E241" t="n">
-        <v>17</v>
+        <v>23.1</v>
       </c>
       <c r="F241" t="n">
-        <v>2.833333333333333</v>
+        <v>3.85</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -6966,10 +6966,10 @@
         <v>90</v>
       </c>
       <c r="E242" t="n">
-        <v>17.1</v>
+        <v>16.1</v>
       </c>
       <c r="F242" t="n">
-        <v>2.85</v>
+        <v>2.683333333333333</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -6984,19 +6984,19 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C243" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D243" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E243" t="n">
-        <v>19.8</v>
+        <v>18.7</v>
       </c>
       <c r="F243" t="n">
-        <v>3.3</v>
+        <v>3.116666666666667</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -7011,23 +7011,23 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D244" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E244" t="n">
-        <v>17.6</v>
+        <v>21.2</v>
       </c>
       <c r="F244" t="n">
-        <v>2.933333333333333</v>
+        <v>3.533333333333333</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -7038,23 +7038,23 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C245" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D245" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E245" t="n">
-        <v>20.2</v>
+        <v>18.7</v>
       </c>
       <c r="F245" t="n">
-        <v>3.366666666666667</v>
+        <v>3.116666666666667</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -7074,14 +7074,14 @@
         <v>80</v>
       </c>
       <c r="E246" t="n">
-        <v>18</v>
+        <v>24.1</v>
       </c>
       <c r="F246" t="n">
-        <v>3</v>
+        <v>4.016666666666667</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -7092,13 +7092,13 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C247" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D247" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E247" t="n">
         <v>19.5</v>
@@ -7119,23 +7119,23 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C248" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D248" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E248" t="n">
-        <v>19</v>
+        <v>18.4</v>
       </c>
       <c r="F248" t="n">
-        <v>3.166666666666667</v>
+        <v>3.066666666666667</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -7146,23 +7146,23 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C249" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D249" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E249" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="F249" t="n">
-        <v>3.2</v>
+        <v>3.183333333333333</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -7173,23 +7173,23 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D250" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E250" t="n">
-        <v>18.1</v>
+        <v>21.6</v>
       </c>
       <c r="F250" t="n">
-        <v>3.016666666666667</v>
+        <v>3.6</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -7200,19 +7200,19 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C251" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D251" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E251" t="n">
-        <v>21.9</v>
+        <v>21.4</v>
       </c>
       <c r="F251" t="n">
-        <v>3.65</v>
+        <v>3.566666666666667</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -7227,23 +7227,23 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C252" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D252" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E252" t="n">
-        <v>19.6</v>
+        <v>21.1</v>
       </c>
       <c r="F252" t="n">
-        <v>3.266666666666667</v>
+        <v>3.516666666666667</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -7254,23 +7254,23 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C253" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D253" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E253" t="n">
-        <v>18.8</v>
+        <v>19.6</v>
       </c>
       <c r="F253" t="n">
-        <v>3.133333333333333</v>
+        <v>3.266666666666667</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -7290,14 +7290,14 @@
         <v>70</v>
       </c>
       <c r="E254" t="n">
-        <v>19.4</v>
+        <v>20.1</v>
       </c>
       <c r="F254" t="n">
-        <v>3.233333333333333</v>
+        <v>3.35</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D255" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E255" t="n">
-        <v>22.6</v>
+        <v>20.8</v>
       </c>
       <c r="F255" t="n">
-        <v>3.766666666666667</v>
+        <v>3.466666666666667</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -7335,23 +7335,23 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C256" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D256" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E256" t="n">
-        <v>19.8</v>
+        <v>20.6</v>
       </c>
       <c r="F256" t="n">
-        <v>3.3</v>
+        <v>3.433333333333333</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -7362,19 +7362,19 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D257" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E257" t="n">
-        <v>19.6</v>
+        <v>19.2</v>
       </c>
       <c r="F257" t="n">
-        <v>3.266666666666667</v>
+        <v>3.2</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -7389,19 +7389,19 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C258" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D258" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E258" t="n">
-        <v>18.4</v>
+        <v>19.2</v>
       </c>
       <c r="F258" t="n">
-        <v>3.066666666666667</v>
+        <v>3.2</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -7416,23 +7416,23 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C259" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D259" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E259" t="n">
-        <v>18.8</v>
+        <v>23.4</v>
       </c>
       <c r="F259" t="n">
-        <v>3.133333333333333</v>
+        <v>3.9</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -7443,23 +7443,23 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C260" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D260" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E260" t="n">
-        <v>19.7</v>
+        <v>18.9</v>
       </c>
       <c r="F260" t="n">
-        <v>3.283333333333333</v>
+        <v>3.15</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -7470,23 +7470,23 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C261" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D261" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E261" t="n">
-        <v>21.1</v>
+        <v>16</v>
       </c>
       <c r="F261" t="n">
-        <v>3.516666666666667</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -7497,19 +7497,19 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C262" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D262" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E262" t="n">
-        <v>19.3</v>
+        <v>20.5</v>
       </c>
       <c r="F262" t="n">
-        <v>3.216666666666667</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -7524,13 +7524,13 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D263" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E263" t="n">
         <v>18.6</v>
@@ -7560,14 +7560,14 @@
         <v>100</v>
       </c>
       <c r="E264" t="n">
-        <v>15.4</v>
+        <v>21.4</v>
       </c>
       <c r="F264" t="n">
-        <v>2.566666666666667</v>
+        <v>3.566666666666667</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -7578,19 +7578,19 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C265" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D265" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E265" t="n">
-        <v>18.3</v>
+        <v>19</v>
       </c>
       <c r="F265" t="n">
-        <v>3.05</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -7605,23 +7605,23 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C266" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D266" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E266" t="n">
-        <v>19.7</v>
+        <v>22.3</v>
       </c>
       <c r="F266" t="n">
-        <v>3.283333333333333</v>
+        <v>3.716666666666667</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -7632,23 +7632,23 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D267" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E267" t="n">
-        <v>20.9</v>
+        <v>19.7</v>
       </c>
       <c r="F267" t="n">
-        <v>3.483333333333333</v>
+        <v>3.283333333333333</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -7659,23 +7659,23 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C268" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D268" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E268" t="n">
-        <v>19.9</v>
+        <v>20.9</v>
       </c>
       <c r="F268" t="n">
-        <v>3.316666666666667</v>
+        <v>3.483333333333333</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -7695,14 +7695,14 @@
         <v>80</v>
       </c>
       <c r="E269" t="n">
-        <v>18.7</v>
+        <v>21.8</v>
       </c>
       <c r="F269" t="n">
-        <v>3.116666666666667</v>
+        <v>3.633333333333333</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -7713,19 +7713,19 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D270" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E270" t="n">
-        <v>23</v>
+        <v>20.5</v>
       </c>
       <c r="F270" t="n">
-        <v>3.833333333333333</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -7740,23 +7740,23 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D271" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E271" t="n">
-        <v>20.6</v>
+        <v>17.4</v>
       </c>
       <c r="F271" t="n">
-        <v>3.433333333333333</v>
+        <v>2.9</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -7767,19 +7767,19 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C272" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D272" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E272" t="n">
-        <v>20.2</v>
+        <v>22.9</v>
       </c>
       <c r="F272" t="n">
-        <v>3.366666666666667</v>
+        <v>3.816666666666667</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -7794,19 +7794,19 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C273" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D273" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E273" t="n">
-        <v>20.5</v>
+        <v>20.1</v>
       </c>
       <c r="F273" t="n">
-        <v>3.416666666666667</v>
+        <v>3.35</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -7830,10 +7830,10 @@
         <v>100</v>
       </c>
       <c r="E274" t="n">
-        <v>22.1</v>
+        <v>23</v>
       </c>
       <c r="F274" t="n">
-        <v>3.683333333333333</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -7848,19 +7848,19 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D275" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E275" t="n">
-        <v>23.2</v>
+        <v>21.9</v>
       </c>
       <c r="F275" t="n">
-        <v>3.866666666666667</v>
+        <v>3.65</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -7884,14 +7884,14 @@
         <v>90</v>
       </c>
       <c r="E276" t="n">
-        <v>14.8</v>
+        <v>21.1</v>
       </c>
       <c r="F276" t="n">
-        <v>2.466666666666667</v>
+        <v>3.516666666666667</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -7902,19 +7902,19 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C277" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D277" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E277" t="n">
-        <v>18.2</v>
+        <v>19.9</v>
       </c>
       <c r="F277" t="n">
-        <v>3.033333333333333</v>
+        <v>3.316666666666667</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -7929,23 +7929,23 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C278" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D278" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E278" t="n">
-        <v>19</v>
+        <v>20.2</v>
       </c>
       <c r="F278" t="n">
-        <v>3.166666666666667</v>
+        <v>3.366666666666667</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -7956,19 +7956,19 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D279" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E279" t="n">
-        <v>23.3</v>
+        <v>20.2</v>
       </c>
       <c r="F279" t="n">
-        <v>3.883333333333333</v>
+        <v>3.366666666666667</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -7983,13 +7983,13 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C280" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D280" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E280" t="n">
         <v>18.6</v>
@@ -7999,7 +7999,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -8010,23 +8010,23 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D281" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E281" t="n">
-        <v>19</v>
+        <v>20.2</v>
       </c>
       <c r="F281" t="n">
-        <v>3.166666666666667</v>
+        <v>3.366666666666667</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -8046,10 +8046,10 @@
         <v>80</v>
       </c>
       <c r="E282" t="n">
-        <v>21.5</v>
+        <v>23.3</v>
       </c>
       <c r="F282" t="n">
-        <v>3.583333333333333</v>
+        <v>3.883333333333333</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -8064,23 +8064,23 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D283" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E283" t="n">
-        <v>21.2</v>
+        <v>17.9</v>
       </c>
       <c r="F283" t="n">
-        <v>3.533333333333333</v>
+        <v>2.983333333333333</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -8091,23 +8091,23 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C284" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D284" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E284" t="n">
-        <v>20.3</v>
+        <v>19.5</v>
       </c>
       <c r="F284" t="n">
-        <v>3.383333333333333</v>
+        <v>3.25</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -8118,23 +8118,23 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C285" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D285" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E285" t="n">
-        <v>21.9</v>
+        <v>19.8</v>
       </c>
       <c r="F285" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -8145,19 +8145,19 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D286" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E286" t="n">
-        <v>19.5</v>
+        <v>19.1</v>
       </c>
       <c r="F286" t="n">
-        <v>3.25</v>
+        <v>3.183333333333333</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -8181,10 +8181,10 @@
         <v>80</v>
       </c>
       <c r="E287" t="n">
-        <v>18.9</v>
+        <v>18.2</v>
       </c>
       <c r="F287" t="n">
-        <v>3.15</v>
+        <v>3.033333333333333</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -8199,19 +8199,19 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C288" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D288" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E288" t="n">
-        <v>20.9</v>
+        <v>22.4</v>
       </c>
       <c r="F288" t="n">
-        <v>3.483333333333333</v>
+        <v>3.733333333333333</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -8226,23 +8226,23 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D289" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E289" t="n">
-        <v>19.9</v>
+        <v>21.6</v>
       </c>
       <c r="F289" t="n">
-        <v>3.316666666666667</v>
+        <v>3.6</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -8253,19 +8253,19 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C290" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D290" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E290" t="n">
-        <v>23.7</v>
+        <v>24.7</v>
       </c>
       <c r="F290" t="n">
-        <v>3.95</v>
+        <v>4.116666666666666</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -8280,23 +8280,23 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D291" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E291" t="n">
-        <v>17.2</v>
+        <v>21.1</v>
       </c>
       <c r="F291" t="n">
-        <v>2.866666666666667</v>
+        <v>3.516666666666667</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -8307,23 +8307,23 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C292" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D292" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E292" t="n">
-        <v>18.7</v>
+        <v>22.1</v>
       </c>
       <c r="F292" t="n">
-        <v>3.116666666666667</v>
+        <v>3.683333333333333</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -8334,19 +8334,19 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C293" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D293" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E293" t="n">
-        <v>20</v>
+        <v>19.1</v>
       </c>
       <c r="F293" t="n">
-        <v>3.333333333333333</v>
+        <v>3.183333333333333</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -8361,23 +8361,23 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C294" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D294" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E294" t="n">
-        <v>19.5</v>
+        <v>20.6</v>
       </c>
       <c r="F294" t="n">
-        <v>3.25</v>
+        <v>3.433333333333333</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -8388,19 +8388,19 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C295" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D295" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E295" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="F295" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -8415,23 +8415,23 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C296" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D296" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E296" t="n">
-        <v>18.3</v>
+        <v>20.3</v>
       </c>
       <c r="F296" t="n">
-        <v>3.05</v>
+        <v>3.383333333333333</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -8442,23 +8442,23 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D297" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E297" t="n">
-        <v>21.4</v>
+        <v>18.7</v>
       </c>
       <c r="F297" t="n">
-        <v>3.566666666666667</v>
+        <v>3.116666666666667</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -8469,23 +8469,23 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D298" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E298" t="n">
-        <v>21.9</v>
+        <v>19.6</v>
       </c>
       <c r="F298" t="n">
-        <v>3.65</v>
+        <v>3.266666666666667</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -8496,23 +8496,23 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D299" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E299" t="n">
-        <v>22</v>
+        <v>19.9</v>
       </c>
       <c r="F299" t="n">
-        <v>3.666666666666667</v>
+        <v>3.316666666666667</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -8523,19 +8523,19 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D300" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E300" t="n">
-        <v>20.9</v>
+        <v>23.6</v>
       </c>
       <c r="F300" t="n">
-        <v>3.483333333333333</v>
+        <v>3.933333333333333</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -8550,19 +8550,19 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C301" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D301" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E301" t="n">
-        <v>22.4</v>
+        <v>20.5</v>
       </c>
       <c r="F301" t="n">
-        <v>3.733333333333333</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -8586,10 +8586,10 @@
         <v>70</v>
       </c>
       <c r="E302" t="n">
-        <v>21.9</v>
+        <v>22.6</v>
       </c>
       <c r="F302" t="n">
-        <v>3.65</v>
+        <v>3.766666666666667</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -8604,19 +8604,19 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C303" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D303" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E303" t="n">
-        <v>19</v>
+        <v>19.8</v>
       </c>
       <c r="F303" t="n">
-        <v>3.166666666666667</v>
+        <v>3.3</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -8631,23 +8631,23 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D304" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E304" t="n">
-        <v>20.2</v>
+        <v>17.6</v>
       </c>
       <c r="F304" t="n">
-        <v>3.366666666666667</v>
+        <v>2.933333333333333</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -8667,14 +8667,14 @@
         <v>80</v>
       </c>
       <c r="E305" t="n">
-        <v>19</v>
+        <v>20.6</v>
       </c>
       <c r="F305" t="n">
-        <v>3.166666666666667</v>
+        <v>3.433333333333333</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -8685,23 +8685,23 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C306" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D306" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E306" t="n">
-        <v>21.3</v>
+        <v>15.3</v>
       </c>
       <c r="F306" t="n">
-        <v>3.55</v>
+        <v>2.55</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -8721,10 +8721,10 @@
         <v>90</v>
       </c>
       <c r="E307" t="n">
-        <v>18.5</v>
+        <v>18.1</v>
       </c>
       <c r="F307" t="n">
-        <v>3.083333333333333</v>
+        <v>3.016666666666667</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -8739,23 +8739,23 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C308" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D308" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E308" t="n">
-        <v>19.1</v>
+        <v>20.4</v>
       </c>
       <c r="F308" t="n">
-        <v>3.183333333333333</v>
+        <v>3.4</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -8766,19 +8766,19 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C309" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D309" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E309" t="n">
-        <v>20.3</v>
+        <v>22.4</v>
       </c>
       <c r="F309" t="n">
-        <v>3.383333333333333</v>
+        <v>3.733333333333333</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -8802,10 +8802,10 @@
         <v>70</v>
       </c>
       <c r="E310" t="n">
-        <v>18.6</v>
+        <v>17.4</v>
       </c>
       <c r="F310" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -8820,23 +8820,23 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C311" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D311" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E311" t="n">
-        <v>19.7</v>
+        <v>21.8</v>
       </c>
       <c r="F311" t="n">
-        <v>3.283333333333333</v>
+        <v>3.633333333333333</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -8847,19 +8847,19 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D312" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E312" t="n">
-        <v>19.4</v>
+        <v>18.2</v>
       </c>
       <c r="F312" t="n">
-        <v>3.233333333333333</v>
+        <v>3.033333333333333</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -8874,19 +8874,19 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C313" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D313" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E313" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="F313" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -8901,23 +8901,23 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C314" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D314" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E314" t="n">
-        <v>20.5</v>
+        <v>18.5</v>
       </c>
       <c r="F314" t="n">
-        <v>3.416666666666667</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -8928,23 +8928,23 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C315" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D315" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E315" t="n">
-        <v>20.2</v>
+        <v>19.3</v>
       </c>
       <c r="F315" t="n">
-        <v>3.366666666666667</v>
+        <v>3.216666666666667</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -8955,19 +8955,19 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D316" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E316" t="n">
-        <v>17.2</v>
+        <v>18.1</v>
       </c>
       <c r="F316" t="n">
-        <v>2.866666666666667</v>
+        <v>3.016666666666667</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -8991,10 +8991,10 @@
         <v>80</v>
       </c>
       <c r="E317" t="n">
-        <v>18.7</v>
+        <v>17.6</v>
       </c>
       <c r="F317" t="n">
-        <v>3.116666666666667</v>
+        <v>2.933333333333333</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -9009,23 +9009,23 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C318" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D318" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E318" t="n">
-        <v>19.9</v>
+        <v>22</v>
       </c>
       <c r="F318" t="n">
-        <v>3.316666666666667</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -9036,19 +9036,19 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C319" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D319" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E319" t="n">
-        <v>18.8</v>
+        <v>21.8</v>
       </c>
       <c r="F319" t="n">
-        <v>3.133333333333333</v>
+        <v>3.633333333333333</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -9063,19 +9063,19 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C320" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D320" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E320" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="F320" t="n">
-        <v>3.4</v>
+        <v>3.433333333333333</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -9090,13 +9090,13 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D321" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E321" t="n">
         <v>16.8</v>
@@ -9117,19 +9117,19 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C322" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D322" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E322" t="n">
-        <v>21.9</v>
+        <v>20.9</v>
       </c>
       <c r="F322" t="n">
-        <v>3.65</v>
+        <v>3.483333333333333</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -9144,19 +9144,19 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C323" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D323" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E323" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="F323" t="n">
-        <v>3.233333333333333</v>
+        <v>3.2</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -9171,23 +9171,23 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C324" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D324" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E324" t="n">
-        <v>21.2</v>
+        <v>18.8</v>
       </c>
       <c r="F324" t="n">
-        <v>3.533333333333333</v>
+        <v>3.133333333333333</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -9198,19 +9198,19 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C325" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D325" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E325" t="n">
-        <v>18.9</v>
+        <v>20.9</v>
       </c>
       <c r="F325" t="n">
-        <v>3.15</v>
+        <v>3.483333333333333</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -9234,10 +9234,10 @@
         <v>80</v>
       </c>
       <c r="E326" t="n">
-        <v>22.1</v>
+        <v>23.7</v>
       </c>
       <c r="F326" t="n">
-        <v>3.683333333333333</v>
+        <v>3.95</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -9252,23 +9252,23 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C327" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D327" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E327" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F327" t="n">
-        <v>3.166666666666667</v>
+        <v>3.5</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -9288,10 +9288,10 @@
         <v>90</v>
       </c>
       <c r="E328" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="F328" t="n">
-        <v>3.5</v>
+        <v>3.433333333333333</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -9306,19 +9306,19 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C329" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D329" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E329" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="F329" t="n">
-        <v>2.833333333333333</v>
+        <v>3.25</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -9333,23 +9333,23 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C330" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D330" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E330" t="n">
-        <v>18</v>
+        <v>20.2</v>
       </c>
       <c r="F330" t="n">
-        <v>3</v>
+        <v>3.366666666666667</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -9360,23 +9360,23 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C331" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D331" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E331" t="n">
-        <v>16.3</v>
+        <v>20.4</v>
       </c>
       <c r="F331" t="n">
-        <v>2.716666666666667</v>
+        <v>3.4</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -9387,23 +9387,23 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C332" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D332" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E332" t="n">
-        <v>20.4</v>
+        <v>19.1</v>
       </c>
       <c r="F332" t="n">
-        <v>3.4</v>
+        <v>3.183333333333333</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -9414,23 +9414,23 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C333" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D333" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E333" t="n">
-        <v>19.2</v>
+        <v>20.1</v>
       </c>
       <c r="F333" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -9441,23 +9441,23 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C334" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D334" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E334" t="n">
-        <v>18.4</v>
+        <v>19.8</v>
       </c>
       <c r="F334" t="n">
-        <v>3.066666666666667</v>
+        <v>3.3</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -9468,23 +9468,23 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C335" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D335" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E335" t="n">
-        <v>18.8</v>
+        <v>20.4</v>
       </c>
       <c r="F335" t="n">
-        <v>3.133333333333333</v>
+        <v>3.4</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -9495,23 +9495,23 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C336" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D336" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E336" t="n">
-        <v>18.6</v>
+        <v>20.2</v>
       </c>
       <c r="F336" t="n">
-        <v>3.1</v>
+        <v>3.366666666666667</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -9522,19 +9522,19 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C337" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D337" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E337" t="n">
-        <v>18.1</v>
+        <v>21.5</v>
       </c>
       <c r="F337" t="n">
-        <v>3.016666666666667</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -9558,14 +9558,14 @@
         <v>70</v>
       </c>
       <c r="E338" t="n">
-        <v>16.4</v>
+        <v>21.6</v>
       </c>
       <c r="F338" t="n">
-        <v>2.733333333333333</v>
+        <v>3.6</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -9576,23 +9576,23 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C339" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D339" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E339" t="n">
-        <v>21.8</v>
+        <v>16.9</v>
       </c>
       <c r="F339" t="n">
-        <v>3.633333333333333</v>
+        <v>2.816666666666667</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -9603,23 +9603,23 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C340" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D340" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E340" t="n">
-        <v>17.6</v>
+        <v>22.8</v>
       </c>
       <c r="F340" t="n">
-        <v>2.933333333333333</v>
+        <v>3.8</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -9630,19 +9630,19 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C341" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D341" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E341" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="F341" t="n">
-        <v>2.916666666666667</v>
+        <v>3.5</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -9657,19 +9657,19 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C342" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D342" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E342" t="n">
-        <v>24.2</v>
+        <v>22.5</v>
       </c>
       <c r="F342" t="n">
-        <v>4.033333333333333</v>
+        <v>3.75</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -9693,14 +9693,14 @@
         <v>90</v>
       </c>
       <c r="E343" t="n">
-        <v>20.1</v>
+        <v>18.2</v>
       </c>
       <c r="F343" t="n">
-        <v>3.35</v>
+        <v>3.033333333333333</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -9711,19 +9711,19 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C344" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D344" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E344" t="n">
-        <v>20.1</v>
+        <v>18.2</v>
       </c>
       <c r="F344" t="n">
-        <v>3.35</v>
+        <v>3.033333333333333</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -9738,19 +9738,19 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C345" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D345" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E345" t="n">
-        <v>21.2</v>
+        <v>20.2</v>
       </c>
       <c r="F345" t="n">
-        <v>3.533333333333333</v>
+        <v>3.366666666666667</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -9765,23 +9765,23 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C346" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D346" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E346" t="n">
-        <v>21.7</v>
+        <v>19.9</v>
       </c>
       <c r="F346" t="n">
-        <v>3.616666666666667</v>
+        <v>3.316666666666667</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -9792,19 +9792,19 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C347" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D347" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E347" t="n">
-        <v>21.2</v>
+        <v>22.1</v>
       </c>
       <c r="F347" t="n">
-        <v>3.533333333333333</v>
+        <v>3.683333333333333</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -9819,19 +9819,19 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C348" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D348" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E348" t="n">
-        <v>21.7</v>
+        <v>21.3</v>
       </c>
       <c r="F348" t="n">
-        <v>3.616666666666667</v>
+        <v>3.55</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -9846,23 +9846,23 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C349" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D349" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E349" t="n">
-        <v>18.9</v>
+        <v>20.2</v>
       </c>
       <c r="F349" t="n">
-        <v>3.15</v>
+        <v>3.366666666666667</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -9873,23 +9873,23 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D350" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E350" t="n">
-        <v>19.5</v>
+        <v>21.2</v>
       </c>
       <c r="F350" t="n">
-        <v>3.25</v>
+        <v>3.533333333333333</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -9900,19 +9900,19 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C351" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D351" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E351" t="n">
-        <v>19.5</v>
+        <v>12.5</v>
       </c>
       <c r="F351" t="n">
-        <v>3.25</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -9936,10 +9936,10 @@
         <v>80</v>
       </c>
       <c r="E352" t="n">
-        <v>17.9</v>
+        <v>19.9</v>
       </c>
       <c r="F352" t="n">
-        <v>2.983333333333333</v>
+        <v>3.316666666666667</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -9954,19 +9954,19 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C353" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D353" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E353" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="F353" t="n">
-        <v>3.416666666666667</v>
+        <v>3.45</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -9981,19 +9981,19 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C354" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D354" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E354" t="n">
-        <v>20.5</v>
+        <v>21.5</v>
       </c>
       <c r="F354" t="n">
-        <v>3.416666666666667</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -10008,13 +10008,13 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C355" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D355" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E355" t="n">
         <v>21.6</v>
@@ -10035,19 +10035,19 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C356" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D356" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E356" t="n">
-        <v>18.1</v>
+        <v>18.5</v>
       </c>
       <c r="F356" t="n">
-        <v>3.016666666666667</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -10071,10 +10071,10 @@
         <v>80</v>
       </c>
       <c r="E357" t="n">
-        <v>20.2</v>
+        <v>21.7</v>
       </c>
       <c r="F357" t="n">
-        <v>3.366666666666667</v>
+        <v>3.616666666666667</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -10089,23 +10089,23 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D358" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E358" t="n">
-        <v>18.9</v>
+        <v>22.8</v>
       </c>
       <c r="F358" t="n">
-        <v>3.15</v>
+        <v>3.8</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -10116,23 +10116,23 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C359" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D359" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E359" t="n">
-        <v>21.4</v>
+        <v>17.8</v>
       </c>
       <c r="F359" t="n">
-        <v>3.566666666666667</v>
+        <v>2.966666666666667</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -10143,19 +10143,19 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C360" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D360" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E360" t="n">
-        <v>21.7</v>
+        <v>16.9</v>
       </c>
       <c r="F360" t="n">
-        <v>3.616666666666667</v>
+        <v>2.816666666666667</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -10170,23 +10170,23 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C361" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D361" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E361" t="n">
-        <v>18.4</v>
+        <v>20.7</v>
       </c>
       <c r="F361" t="n">
-        <v>3.066666666666667</v>
+        <v>3.45</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -10206,10 +10206,10 @@
         <v>80</v>
       </c>
       <c r="E362" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="F362" t="n">
-        <v>3.366666666666667</v>
+        <v>3.383333333333333</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -10224,23 +10224,23 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C363" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D363" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E363" t="n">
-        <v>18.9</v>
+        <v>20.6</v>
       </c>
       <c r="F363" t="n">
-        <v>3.15</v>
+        <v>3.433333333333333</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -10251,19 +10251,19 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C364" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D364" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E364" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="F364" t="n">
-        <v>3.433333333333333</v>
+        <v>3.4</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -10278,23 +10278,23 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C365" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D365" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E365" t="n">
-        <v>22.4</v>
+        <v>18.5</v>
       </c>
       <c r="F365" t="n">
-        <v>3.733333333333333</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -10305,23 +10305,23 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C366" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D366" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E366" t="n">
-        <v>17.6</v>
+        <v>21.5</v>
       </c>
       <c r="F366" t="n">
-        <v>2.933333333333333</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -10332,19 +10332,19 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C367" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D367" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E367" t="n">
-        <v>18.2</v>
+        <v>20.5</v>
       </c>
       <c r="F367" t="n">
-        <v>3.033333333333333</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -10359,19 +10359,19 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D368" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E368" t="n">
-        <v>18</v>
+        <v>19.3</v>
       </c>
       <c r="F368" t="n">
-        <v>3</v>
+        <v>3.216666666666667</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -10386,23 +10386,23 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C369" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D369" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E369" t="n">
-        <v>21.8</v>
+        <v>19.4</v>
       </c>
       <c r="F369" t="n">
-        <v>3.633333333333333</v>
+        <v>3.233333333333333</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -10413,19 +10413,19 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C370" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D370" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E370" t="n">
-        <v>15.9</v>
+        <v>19.3</v>
       </c>
       <c r="F370" t="n">
-        <v>2.65</v>
+        <v>3.216666666666667</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -10449,10 +10449,10 @@
         <v>80</v>
       </c>
       <c r="E371" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="F371" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -10467,19 +10467,19 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C372" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D372" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E372" t="n">
-        <v>22.6</v>
+        <v>20.3</v>
       </c>
       <c r="F372" t="n">
-        <v>3.766666666666667</v>
+        <v>3.383333333333333</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -10494,23 +10494,23 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D373" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E373" t="n">
-        <v>22.7</v>
+        <v>18</v>
       </c>
       <c r="F373" t="n">
-        <v>3.783333333333333</v>
+        <v>3</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -10521,23 +10521,23 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C374" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D374" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E374" t="n">
-        <v>21.4</v>
+        <v>18.7</v>
       </c>
       <c r="F374" t="n">
-        <v>3.566666666666667</v>
+        <v>3.116666666666667</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -10548,19 +10548,19 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C375" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D375" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E375" t="n">
-        <v>21.3</v>
+        <v>20.7</v>
       </c>
       <c r="F375" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -10575,19 +10575,19 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D376" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E376" t="n">
-        <v>21.8</v>
+        <v>22.9</v>
       </c>
       <c r="F376" t="n">
-        <v>3.633333333333333</v>
+        <v>3.816666666666667</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -10602,19 +10602,19 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C377" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D377" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E377" t="n">
-        <v>17.4</v>
+        <v>19.7</v>
       </c>
       <c r="F377" t="n">
-        <v>2.9</v>
+        <v>3.283333333333333</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -10629,23 +10629,23 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C378" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D378" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E378" t="n">
-        <v>22.7</v>
+        <v>18.4</v>
       </c>
       <c r="F378" t="n">
-        <v>3.783333333333333</v>
+        <v>3.066666666666667</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -10656,23 +10656,23 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C379" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D379" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E379" t="n">
-        <v>21</v>
+        <v>18.8</v>
       </c>
       <c r="F379" t="n">
-        <v>3.5</v>
+        <v>3.133333333333333</v>
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -10683,19 +10683,19 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C380" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D380" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E380" t="n">
-        <v>20</v>
+        <v>21.3</v>
       </c>
       <c r="F380" t="n">
-        <v>3.333333333333333</v>
+        <v>3.55</v>
       </c>
       <c r="G380" t="inlineStr">
         <is>
@@ -10710,23 +10710,23 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C381" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D381" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E381" t="n">
-        <v>17.9</v>
+        <v>20.4</v>
       </c>
       <c r="F381" t="n">
-        <v>2.983333333333333</v>
+        <v>3.4</v>
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -10746,10 +10746,10 @@
         <v>100</v>
       </c>
       <c r="E382" t="n">
-        <v>19.8</v>
+        <v>15.8</v>
       </c>
       <c r="F382" t="n">
-        <v>3.3</v>
+        <v>2.633333333333333</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -10764,23 +10764,23 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D383" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E383" t="n">
-        <v>19.9</v>
+        <v>21.2</v>
       </c>
       <c r="F383" t="n">
-        <v>3.316666666666667</v>
+        <v>3.533333333333333</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -10791,19 +10791,19 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D384" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E384" t="n">
-        <v>21.9</v>
+        <v>21.1</v>
       </c>
       <c r="F384" t="n">
-        <v>3.65</v>
+        <v>3.516666666666667</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -10818,19 +10818,19 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D385" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E385" t="n">
-        <v>22.4</v>
+        <v>20.1</v>
       </c>
       <c r="F385" t="n">
-        <v>3.733333333333333</v>
+        <v>3.35</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -10854,10 +10854,10 @@
         <v>80</v>
       </c>
       <c r="E386" t="n">
-        <v>23</v>
+        <v>21.2</v>
       </c>
       <c r="F386" t="n">
-        <v>3.833333333333333</v>
+        <v>3.533333333333333</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -10872,23 +10872,23 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C387" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D387" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E387" t="n">
-        <v>18</v>
+        <v>24.2</v>
       </c>
       <c r="F387" t="n">
-        <v>3</v>
+        <v>4.033333333333333</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -10899,23 +10899,23 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C388" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D388" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E388" t="n">
-        <v>22</v>
+        <v>17.8</v>
       </c>
       <c r="F388" t="n">
-        <v>3.666666666666667</v>
+        <v>2.966666666666667</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -10926,23 +10926,23 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C389" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D389" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E389" t="n">
-        <v>20</v>
+        <v>21.8</v>
       </c>
       <c r="F389" t="n">
-        <v>3.333333333333333</v>
+        <v>3.633333333333333</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -10953,23 +10953,23 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C390" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D390" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E390" t="n">
-        <v>18.8</v>
+        <v>20.5</v>
       </c>
       <c r="F390" t="n">
-        <v>3.133333333333333</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -10989,14 +10989,14 @@
         <v>70</v>
       </c>
       <c r="E391" t="n">
-        <v>20.9</v>
+        <v>19.1</v>
       </c>
       <c r="F391" t="n">
-        <v>3.483333333333333</v>
+        <v>3.183333333333333</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -11007,23 +11007,23 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C392" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D392" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E392" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="F392" t="n">
-        <v>3.3</v>
+        <v>3.266666666666667</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -11034,23 +11034,23 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C393" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D393" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E393" t="n">
-        <v>22.7</v>
+        <v>19.3</v>
       </c>
       <c r="F393" t="n">
-        <v>3.783333333333333</v>
+        <v>3.216666666666667</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -11061,23 +11061,23 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C394" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D394" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E394" t="n">
-        <v>21.3</v>
+        <v>18.8</v>
       </c>
       <c r="F394" t="n">
-        <v>3.55</v>
+        <v>3.133333333333333</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -11088,23 +11088,23 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C395" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D395" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E395" t="n">
-        <v>21.2</v>
+        <v>16.7</v>
       </c>
       <c r="F395" t="n">
-        <v>3.533333333333333</v>
+        <v>2.783333333333333</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>REPROVADO</t>
+          <t>APROVADO</t>
         </is>
       </c>
     </row>
@@ -11115,19 +11115,19 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C396" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D396" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E396" t="n">
-        <v>16.8</v>
+        <v>18.8</v>
       </c>
       <c r="F396" t="n">
-        <v>2.8</v>
+        <v>3.133333333333333</v>
       </c>
       <c r="G396" t="inlineStr">
         <is>
@@ -11142,19 +11142,19 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C397" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D397" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E397" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="F397" t="n">
-        <v>3.416666666666667</v>
+        <v>3.433333333333333</v>
       </c>
       <c r="G397" t="inlineStr">
         <is>
@@ -11169,23 +11169,23 @@
         </is>
       </c>
       <c r="B398" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D398" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E398" t="n">
-        <v>16.4</v>
+        <v>24.2</v>
       </c>
       <c r="F398" t="n">
-        <v>2.733333333333333</v>
+        <v>4.033333333333333</v>
       </c>
       <c r="G398" t="inlineStr">
         <is>
-          <t>APROVADO</t>
+          <t>REPROVADO</t>
         </is>
       </c>
     </row>
@@ -11196,19 +11196,19 @@
         </is>
       </c>
       <c r="B399" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C399" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D399" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E399" t="n">
-        <v>23.2</v>
+        <v>22.8</v>
       </c>
       <c r="F399" t="n">
-        <v>3.866666666666667</v>
+        <v>3.8</v>
       </c>
       <c r="G399" t="inlineStr">
         <is>
@@ -11232,10 +11232,10 @@
         <v>90</v>
       </c>
       <c r="E400" t="n">
-        <v>20.5</v>
+        <v>24.1</v>
       </c>
       <c r="F400" t="n">
-        <v>3.416666666666667</v>
+        <v>4.016666666666667</v>
       </c>
       <c r="G400" t="inlineStr">
         <is>
@@ -11250,19 +11250,19 @@
         </is>
       </c>
       <c r="B401" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C401" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D401" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E401" t="n">
-        <v>21.8</v>
+        <v>21.4</v>
       </c>
       <c r="F401" t="n">
-        <v>3.633333333333333</v>
+        <v>3.566666666666667</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
